--- a/data/99. analyzes/excel/2015_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2015_pharma_summarize.xlsx
@@ -1069,7 +1069,7 @@
         <v>111997.55</v>
       </c>
       <c r="F16" t="n">
-        <v>571038.6699999999</v>
+        <v>563788.6699999999</v>
       </c>
       <c r="G16" t="n">
         <v>19922.54</v>
@@ -1078,7 +1078,7 @@
         <v>199397.76</v>
       </c>
       <c r="I16" t="n">
-        <v>1796545.08</v>
+        <v>1789295.08</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>641566</v>
+        <v>638566</v>
       </c>
       <c r="D34" t="n">
         <v>9704</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>817863</v>
+        <v>814863</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3305,13 +3305,13 @@
         <v>5800</v>
       </c>
       <c r="G40" t="n">
-        <v>182718.5</v>
+        <v>175468.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1022417.54</v>
+        <v>1015167.54</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>641566</v>
+        <v>638566</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>641566</v>
+        <v>638566</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5836,7 +5836,7 @@
         <v>12375.88</v>
       </c>
       <c r="I131" t="n">
-        <v>352747.8199999999</v>
+        <v>352747.8199999998</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7321,13 +7321,13 @@
         <v>5800</v>
       </c>
       <c r="G40" t="n">
-        <v>182718.5</v>
+        <v>175468.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1022417.54</v>
+        <v>1015167.54</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>641566</v>
+        <v>638566</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>641566</v>
+        <v>638566</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9852,7 +9852,7 @@
         <v>12375.88</v>
       </c>
       <c r="I131" t="n">
-        <v>352747.8199999999</v>
+        <v>352747.8199999998</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -10479,19 +10479,19 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>730198.8799999999</v>
+        <v>722948.8799999999</v>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="n">
         <v>866948.4400000001</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" t="n">
-        <v>1597147.32</v>
+        <v>1589897.32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10659,7 +10659,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>541703</v>
+        <v>538703</v>
       </c>
       <c r="C22" t="n">
         <v>66</v>
@@ -10671,7 +10671,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>817863</v>
+        <v>814863</v>
       </c>
     </row>
     <row r="23" spans="1:6">

--- a/data/99. analyzes/excel/2015_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2015_pharma_summarize.xlsx
@@ -698,10 +698,10 @@
         <v>43120.59</v>
       </c>
       <c r="H3" t="n">
-        <v>2401382</v>
+        <v>1376521.62</v>
       </c>
       <c r="I3" t="n">
-        <v>3426242.37</v>
+        <v>2401381.99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>85777.11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>171554.22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -854,28 +854,28 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>1625337.97</v>
+        <v>1929625.01</v>
       </c>
       <c r="C9" t="n">
-        <v>1718093.54</v>
+        <v>2357412.62</v>
       </c>
       <c r="D9" t="n">
-        <v>49845.7</v>
+        <v>55398.07999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>25792.85</v>
+        <v>36549.75</v>
       </c>
       <c r="F9" t="n">
-        <v>255240.95</v>
+        <v>515549.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2582.88</v>
+        <v>5676.61</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>3622360.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3676893.89</v>
+        <v>8522571.41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1063,22 +1063,22 @@
         <v>521972.1900000001</v>
       </c>
       <c r="D16" t="n">
-        <v>62759.52</v>
+        <v>45860.52</v>
       </c>
       <c r="E16" t="n">
-        <v>111997.55</v>
+        <v>70715.55</v>
       </c>
       <c r="F16" t="n">
-        <v>563788.6699999999</v>
+        <v>517780.67</v>
       </c>
       <c r="G16" t="n">
-        <v>19922.54</v>
+        <v>18138.54</v>
       </c>
       <c r="H16" t="n">
         <v>199397.76</v>
       </c>
       <c r="I16" t="n">
-        <v>1789295.08</v>
+        <v>1683322.08</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1121,22 +1121,22 @@
         <v>201233</v>
       </c>
       <c r="D18" t="n">
-        <v>191863</v>
+        <v>208762</v>
       </c>
       <c r="E18" t="n">
-        <v>236684</v>
+        <v>277966</v>
       </c>
       <c r="F18" t="n">
-        <v>154482</v>
+        <v>200490</v>
       </c>
       <c r="G18" t="n">
-        <v>5907</v>
+        <v>7691</v>
       </c>
       <c r="H18" t="n">
         <v>570684</v>
       </c>
       <c r="I18" t="n">
-        <v>1376592</v>
+        <v>1482565</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1394,10 +1394,10 @@
         <v>15227.24</v>
       </c>
       <c r="H27" t="n">
-        <v>2362007.35</v>
+        <v>557916.8999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>4724014.7</v>
+        <v>2919924.25</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>2220856</v>
+        <v>2611851</v>
       </c>
       <c r="C30" t="n">
-        <v>651884</v>
+        <v>812884</v>
       </c>
       <c r="D30" t="n">
-        <v>6794</v>
+        <v>15505</v>
       </c>
       <c r="E30" t="n">
-        <v>11156</v>
+        <v>29310</v>
       </c>
       <c r="F30" t="n">
-        <v>69615</v>
+        <v>172817</v>
       </c>
       <c r="G30" t="n">
-        <v>4262</v>
+        <v>25431</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2239565</v>
       </c>
       <c r="I30" t="n">
-        <v>2964567</v>
+        <v>5907363</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1550,19 +1550,19 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>164271</v>
+        <v>172648</v>
       </c>
       <c r="C33" t="n">
-        <v>609476</v>
+        <v>1056711</v>
       </c>
       <c r="D33" t="n">
         <v>61375</v>
       </c>
       <c r="E33" t="n">
-        <v>144705</v>
+        <v>145229</v>
       </c>
       <c r="F33" t="n">
-        <v>80589</v>
+        <v>82941</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1060416</v>
+        <v>1518904</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1655,10 +1655,10 @@
         <v>62210.69</v>
       </c>
       <c r="H36" t="n">
-        <v>5314998.280000001</v>
+        <v>1031039.46</v>
       </c>
       <c r="I36" t="n">
-        <v>9158197.880000001</v>
+        <v>4874239.060000001</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1742,10 +1742,10 @@
         <v>118204.16</v>
       </c>
       <c r="H39" t="n">
-        <v>25767442.4</v>
+        <v>16233766.85</v>
       </c>
       <c r="I39" t="n">
-        <v>35301118.52</v>
+        <v>25767442.97</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1901,25 +1901,25 @@
         <v>1826290</v>
       </c>
       <c r="C45" t="n">
-        <v>1509779</v>
+        <v>1523096</v>
       </c>
       <c r="D45" t="n">
-        <v>74877</v>
+        <v>121022</v>
       </c>
       <c r="E45" t="n">
-        <v>105416</v>
+        <v>136103</v>
       </c>
       <c r="F45" t="n">
-        <v>732673</v>
+        <v>2471522</v>
       </c>
       <c r="G45" t="n">
-        <v>41361</v>
+        <v>102169</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6998109</v>
       </c>
       <c r="I45" t="n">
-        <v>4290396</v>
+        <v>13178311</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1945,10 +1945,10 @@
         <v>21142.48</v>
       </c>
       <c r="H46" t="n">
+        <v>6659.310000000056</v>
+      </c>
+      <c r="I46" t="n">
         <v>670458.52</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1334257.73</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2119,10 +2119,10 @@
         <v>1111.95</v>
       </c>
       <c r="H52" t="n">
+        <v>680648.9300000002</v>
+      </c>
+      <c r="I52" t="n">
         <v>1754746.98</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2828845.03</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2194,7 +2194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2401382</v>
+        <v>1376521.62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2454,15 +2454,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>189860</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2477,347 +2479,345 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>85777.11</v>
+        <v>197260</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59466</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6954</v>
+      </c>
+      <c r="G11" t="n">
+        <v>150161</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>216581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D11" t="n">
-        <v>189860</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>197260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>394477.36</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4980.03</v>
+      </c>
+      <c r="H12" t="n">
+        <v>989.59</v>
+      </c>
+      <c r="I12" t="n">
+        <v>400446.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>59466</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6954</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150161</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>216581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>394477.36</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1045.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>19641.62</v>
       </c>
       <c r="G13" t="n">
-        <v>4980.03</v>
+        <v>34068.41</v>
       </c>
       <c r="H13" t="n">
-        <v>989.59</v>
+        <v>3831.93</v>
       </c>
       <c r="I13" t="n">
-        <v>400446.98</v>
+        <v>58587.75999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18891.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>239384.15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1502229.92</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29288.81</v>
+      </c>
+      <c r="F15" t="n">
+        <v>55749.39999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>174544.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2360.32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2003556.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1045.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19641.62</v>
-      </c>
-      <c r="G14" t="n">
-        <v>34068.41</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3831.93</v>
-      </c>
-      <c r="I14" t="n">
-        <v>58587.75999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18891.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C16" t="n">
-        <v>239384.15</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1502229.92</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29288.81</v>
+        <v>77270.91000000002</v>
       </c>
       <c r="F16" t="n">
-        <v>55749.39999999999</v>
+        <v>259497.7499999999</v>
       </c>
       <c r="G16" t="n">
-        <v>174544.05</v>
+        <v>158941.67</v>
       </c>
       <c r="H16" t="n">
-        <v>2360.32</v>
+        <v>72150.84</v>
       </c>
       <c r="I16" t="n">
-        <v>2003556.65</v>
+        <v>567861.1699999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1344344.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>226348</v>
+      </c>
+      <c r="D18" t="n">
+        <v>394298.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14774</v>
+      </c>
+      <c r="F18" t="n">
+        <v>38638.19999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>30832.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>704957.8999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>77270.91000000002</v>
-      </c>
-      <c r="F17" t="n">
-        <v>259497.7499999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>158941.67</v>
-      </c>
-      <c r="H17" t="n">
-        <v>72150.84</v>
-      </c>
-      <c r="I17" t="n">
-        <v>567861.1699999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1344344.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" t="n">
-        <v>226348</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>394298.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>14774</v>
+        <v>35142.8</v>
       </c>
       <c r="F19" t="n">
-        <v>38638.19999999999</v>
+        <v>86689.60000000002</v>
       </c>
       <c r="G19" t="n">
-        <v>30832.4</v>
+        <v>82327.5</v>
       </c>
       <c r="H19" t="n">
-        <v>66.59999999999999</v>
+        <v>4973.099999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>704957.8999999999</v>
+        <v>209133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>103738.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1929625.01</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2357412.62</v>
+      </c>
+      <c r="E21" t="n">
+        <v>50474</v>
+      </c>
+      <c r="F21" t="n">
+        <v>503.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>158541.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4497175.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>35142.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>86689.60000000002</v>
-      </c>
-      <c r="G20" t="n">
-        <v>82327.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4973.099999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>209133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>103738.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C22" t="n">
-        <v>1625337.97</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1718093.54</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46050</v>
+        <v>4924.08</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>36046.55</v>
       </c>
       <c r="G22" t="n">
-        <v>46760</v>
+        <v>357007.39</v>
       </c>
       <c r="H22" t="n">
-        <v>145</v>
+        <v>5057.809999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>3436386.51</v>
+        <v>403035.8299999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2826,19 +2826,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3795.7</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>25792.85</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>208480.95</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2437.88</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>240507.3799999999</v>
+        <v>3622360.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3326,19 +3326,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>60289.52</v>
+        <v>43390.52</v>
       </c>
       <c r="F41" t="n">
-        <v>106197.55</v>
+        <v>64915.55</v>
       </c>
       <c r="G41" t="n">
-        <v>388320.17</v>
+        <v>342312.17</v>
       </c>
       <c r="H41" t="n">
-        <v>19922.54</v>
+        <v>18138.54</v>
       </c>
       <c r="I41" t="n">
-        <v>574729.78</v>
+        <v>468756.78</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3492,19 +3492,19 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>73407</v>
+        <v>90306</v>
       </c>
       <c r="F47" t="n">
-        <v>214571</v>
+        <v>255853</v>
       </c>
       <c r="G47" t="n">
-        <v>111873</v>
+        <v>157881</v>
       </c>
       <c r="H47" t="n">
-        <v>5675</v>
+        <v>7459</v>
       </c>
       <c r="I47" t="n">
-        <v>405526</v>
+        <v>511499</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2362007.35</v>
+        <v>557916.9</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4374,10 +4374,10 @@
         <v>65</v>
       </c>
       <c r="C79" t="n">
-        <v>2220856</v>
+        <v>2611851</v>
       </c>
       <c r="D79" t="n">
-        <v>651884</v>
+        <v>812884</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -4386,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>29062</v>
+        <v>30050</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2901802</v>
+        <v>3454785</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4407,1498 +4407,1496 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6794</v>
+        <v>15505</v>
       </c>
       <c r="F80" t="n">
-        <v>11156</v>
+        <v>29310</v>
       </c>
       <c r="G80" t="n">
-        <v>40553</v>
+        <v>142767</v>
       </c>
       <c r="H80" t="n">
-        <v>4262</v>
+        <v>25431</v>
       </c>
       <c r="I80" t="n">
-        <v>62765</v>
+        <v>213013</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2239565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C82" t="n">
         <v>1600</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D82" t="n">
         <v>96557.35000000001</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>98157.35000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1436.55</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2781</v>
-      </c>
-      <c r="G82" t="n">
-        <v>42410</v>
-      </c>
-      <c r="H82" t="n">
-        <v>42</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46669.55</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1436.55</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2781</v>
+      </c>
+      <c r="G83" t="n">
+        <v>42410</v>
+      </c>
+      <c r="H83" t="n">
+        <v>42</v>
+      </c>
+      <c r="I83" t="n">
+        <v>46669.55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>5000</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>340494</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>27620</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H85" t="n">
         <v>546</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I85" t="n">
         <v>368660</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
         <v>2120</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>2674</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G86" t="n">
         <v>205238</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H86" t="n">
         <v>6073</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I86" t="n">
         <v>216105</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C86" t="n">
-        <v>164271</v>
-      </c>
-      <c r="D86" t="n">
-        <v>598476</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="C87" t="n">
+        <v>172648</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1045711</v>
+      </c>
+      <c r="E87" t="n">
         <v>1812</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F87" t="n">
         <v>3870</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G87" t="n">
         <v>5411</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>773840</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="s">
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1229452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
         <v>11000</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E88" t="n">
         <v>59563</v>
       </c>
-      <c r="F87" t="n">
-        <v>140835</v>
-      </c>
-      <c r="G87" t="n">
-        <v>75178</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>286576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
+      <c r="F88" t="n">
+        <v>141359</v>
+      </c>
+      <c r="G88" t="n">
+        <v>77530</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>289452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
         <v>638566</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>638566</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
         <v>9704</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F90" t="n">
         <v>17049</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G90" t="n">
         <v>147225</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H90" t="n">
         <v>2319</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I90" t="n">
         <v>176297</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C91" t="n">
         <v>4858408.1</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D91" t="n">
         <v>874911.5599999998</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E91" t="n">
         <v>5688.17</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F91" t="n">
         <v>20552.02</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G91" t="n">
         <v>23600</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H91" t="n">
         <v>233</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I91" t="n">
         <v>5783392.850000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>46026.21</v>
-      </c>
-      <c r="F91" t="n">
-        <v>139741.48</v>
-      </c>
-      <c r="G91" t="n">
-        <v>164875.78</v>
-      </c>
-      <c r="H91" t="n">
-        <v>12176.82</v>
-      </c>
-      <c r="I91" t="n">
-        <v>362820.29</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>46026.21</v>
+      </c>
+      <c r="F92" t="n">
+        <v>139741.48</v>
+      </c>
+      <c r="G92" t="n">
+        <v>164875.78</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12176.82</v>
+      </c>
+      <c r="I92" t="n">
+        <v>362820.29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>2303382</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C94" t="n">
         <v>762403.2499999999</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D94" t="n">
         <v>1994222.51</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E94" t="n">
         <v>22237.74</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F94" t="n">
         <v>91899.37</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G94" t="n">
         <v>307438.09</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H94" t="n">
         <v>106.3</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I94" t="n">
         <v>3178307.26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>63313.87</v>
-      </c>
-      <c r="E94" t="n">
-        <v>15231.24</v>
-      </c>
-      <c r="F94" t="n">
-        <v>61439.73</v>
-      </c>
-      <c r="G94" t="n">
-        <v>462803.11</v>
-      </c>
-      <c r="H94" t="n">
-        <v>62104.39</v>
-      </c>
-      <c r="I94" t="n">
-        <v>664892.34</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>63313.87</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15231.24</v>
+      </c>
+      <c r="F95" t="n">
+        <v>61439.73</v>
+      </c>
+      <c r="G95" t="n">
+        <v>462803.11</v>
+      </c>
+      <c r="H95" t="n">
+        <v>62104.39</v>
+      </c>
+      <c r="I95" t="n">
+        <v>664892.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5314998.28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1031039.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C97" t="n">
         <v>745242.5499999999</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>745242.5499999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>42010</v>
-      </c>
-      <c r="F97" t="n">
-        <v>81420.39999999999</v>
-      </c>
-      <c r="G97" t="n">
-        <v>55798.2</v>
-      </c>
-      <c r="H97" t="n">
-        <v>150</v>
-      </c>
-      <c r="I97" t="n">
-        <v>179378.6</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>42010</v>
+      </c>
+      <c r="F98" t="n">
+        <v>81420.39999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>55798.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>150</v>
+      </c>
+      <c r="I98" t="n">
+        <v>179378.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>125500</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>7000</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>7000</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
         <v>800</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C102" t="n">
         <v>1824924.86</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D102" t="n">
         <v>5000149.59</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E102" t="n">
         <v>136792.82</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F102" t="n">
         <v>175626.26</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G102" t="n">
         <v>1084468.07</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H102" t="n">
         <v>14473.13</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I102" t="n">
         <v>8236434.729999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>142183.35</v>
-      </c>
-      <c r="F102" t="n">
-        <v>260861.98</v>
-      </c>
-      <c r="G102" t="n">
-        <v>790465.0299999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>103731.03</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1297241.39</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>142183.35</v>
+      </c>
+      <c r="F103" t="n">
+        <v>260861.98</v>
+      </c>
+      <c r="G103" t="n">
+        <v>790465.0299999999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>103731.03</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1297241.39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>25767442.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="s">
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16233766.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C105" t="n">
         <v>727870</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D105" t="n">
         <v>168657</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E105" t="n">
         <v>1335</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F105" t="n">
         <v>4404</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G105" t="n">
         <v>42414</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>944680</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>26550</v>
-      </c>
-      <c r="E105" t="n">
-        <v>77909</v>
-      </c>
-      <c r="F105" t="n">
-        <v>290236</v>
-      </c>
-      <c r="G105" t="n">
-        <v>226587</v>
-      </c>
-      <c r="H105" t="n">
-        <v>18638</v>
-      </c>
-      <c r="I105" t="n">
-        <v>639920</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>26550</v>
+      </c>
+      <c r="E106" t="n">
+        <v>77909</v>
+      </c>
+      <c r="F106" t="n">
+        <v>290236</v>
+      </c>
+      <c r="G106" t="n">
+        <v>226587</v>
+      </c>
+      <c r="H106" t="n">
+        <v>18638</v>
+      </c>
+      <c r="I106" t="n">
+        <v>639920</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>205170</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>168656</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>168656</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="1:9">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
         <v>9901.24</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F109" t="n">
         <v>23947.66</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G109" t="n">
         <v>11500</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>45348.9</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C110" t="n">
         <v>10000</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D110" t="n">
         <v>102391.88</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
         <v>206.75</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G110" t="n">
         <v>34016.2</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H110" t="n">
         <v>832.67</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I110" t="n">
         <v>147447.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
         <v>6457.109999999999</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F111" t="n">
         <v>23966.64000000001</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G111" t="n">
         <v>51965.15</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H111" t="n">
         <v>6150.51</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I111" t="n">
         <v>88539.41000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:9">
+      <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C112" t="n">
         <v>797257</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D112" t="n">
         <v>3115267</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E112" t="n">
         <v>5502</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F112" t="n">
         <v>22363</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G112" t="n">
         <v>183583</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H112" t="n">
         <v>3000</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I112" t="n">
         <v>4126972</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>67428</v>
-      </c>
-      <c r="F112" t="n">
-        <v>193140</v>
-      </c>
-      <c r="G112" t="n">
-        <v>305389</v>
-      </c>
-      <c r="H112" t="n">
-        <v>14282</v>
-      </c>
-      <c r="I112" t="n">
-        <v>580239</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67428</v>
+      </c>
+      <c r="F113" t="n">
+        <v>193140</v>
+      </c>
+      <c r="G113" t="n">
+        <v>305389</v>
+      </c>
+      <c r="H113" t="n">
+        <v>14282</v>
+      </c>
+      <c r="I113" t="n">
+        <v>580239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>1858318</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:9">
+      <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C115" t="n">
         <v>7835</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D115" t="n">
         <v>231449</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E115" t="n">
         <v>5556.059999999999</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>11036.1</v>
       </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>255876.16</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:9">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
         <v>19440.18</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F116" t="n">
         <v>47068.42999999999</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G116" t="n">
         <v>29350</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H116" t="n">
         <v>1355</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I116" t="n">
         <v>97213.60999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C117" t="n">
         <v>1826290</v>
       </c>
-      <c r="D116" t="n">
-        <v>1509779</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3187</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="D117" t="n">
+        <v>1523096</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5821</v>
+      </c>
+      <c r="F117" t="n">
         <v>5122</v>
       </c>
-      <c r="G116" t="n">
-        <v>488647</v>
-      </c>
-      <c r="H116" t="n">
-        <v>268</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3833293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="s">
+      <c r="G117" t="n">
+        <v>492447</v>
+      </c>
+      <c r="H117" t="n">
+        <v>393</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3853169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>71690</v>
-      </c>
-      <c r="F117" t="n">
-        <v>100294</v>
-      </c>
-      <c r="G117" t="n">
-        <v>244026</v>
-      </c>
-      <c r="H117" t="n">
-        <v>41093</v>
-      </c>
-      <c r="I117" t="n">
-        <v>457103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C118" t="n">
-        <v>215022.25</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>218107.03</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>7834</v>
+        <v>115201</v>
       </c>
       <c r="F118" t="n">
-        <v>7439</v>
+        <v>130981</v>
       </c>
       <c r="G118" t="n">
-        <v>1000</v>
+        <v>1979075</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>101776</v>
       </c>
       <c r="I118" t="n">
-        <v>449402.28</v>
+        <v>2327033</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6998109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>215022.25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>218107.03</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7834</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7439</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>449402.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
         <v>56048.11</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F121" t="n">
         <v>87602.73</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G121" t="n">
         <v>49603.61</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H121" t="n">
         <v>21142.48</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I121" t="n">
         <v>214396.93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>670458.52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121" t="n">
-        <v>293776.47</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1234021.74</v>
-      </c>
-      <c r="E121" t="n">
-        <v>422.78</v>
-      </c>
-      <c r="F121" t="n">
-        <v>7864.76</v>
-      </c>
-      <c r="G121" t="n">
-        <v>93991</v>
-      </c>
-      <c r="H121" t="n">
-        <v>14491.63</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1644568.38</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6659.31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>293776.47</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1234021.74</v>
+      </c>
+      <c r="E123" t="n">
+        <v>422.78</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7864.76</v>
+      </c>
+      <c r="G123" t="n">
+        <v>93991</v>
+      </c>
+      <c r="H123" t="n">
+        <v>14491.63</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1644568.38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>40054.83</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F124" t="n">
         <v>146256.47</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G124" t="n">
         <v>378638.52</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H124" t="n">
         <v>52220.73</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I124" t="n">
         <v>617170.5499999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>297960.34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C124" t="n">
-        <v>461571</v>
-      </c>
-      <c r="D124" t="n">
-        <v>830411</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4874</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>527506</v>
-      </c>
-      <c r="H124" t="n">
-        <v>3537</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1827899</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>297960.34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="n">
+        <v>461571</v>
+      </c>
+      <c r="D126" t="n">
+        <v>830411</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4874</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>527506</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3537</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1827899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>28560</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F127" t="n">
         <v>76241</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G127" t="n">
         <v>157360</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H127" t="n">
         <v>16753</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I127" t="n">
         <v>278914</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>185571</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>55249</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>55249</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>185571</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>55249</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>55249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>17588</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F130" t="n">
         <v>26799</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G130" t="n">
         <v>14300</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H130" t="n">
         <v>2039</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I130" t="n">
         <v>60726</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1056679.22</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1012337.41</v>
-      </c>
-      <c r="E130" t="n">
-        <v>37738.36999999999</v>
-      </c>
-      <c r="F130" t="n">
-        <v>122312.31</v>
-      </c>
-      <c r="G130" t="n">
-        <v>109103.89</v>
-      </c>
-      <c r="H130" t="n">
-        <v>10760.7</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2348931.899999999</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1056679.22</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1012337.41</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37738.36999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>122312.31</v>
+      </c>
+      <c r="G132" t="n">
+        <v>109103.89</v>
+      </c>
+      <c r="H132" t="n">
+        <v>10760.7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2348931.899999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
         <v>41275.78999999999</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F133" t="n">
         <v>105225.7700000001</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G133" t="n">
         <v>193870.38</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H133" t="n">
         <v>12375.88</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I133" t="n">
         <v>352747.8199999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>414092.07</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6704</v>
-      </c>
-      <c r="D133" t="n">
-        <v>174799</v>
-      </c>
-      <c r="E133" t="n">
-        <v>29122</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>3100</v>
-      </c>
-      <c r="H133" t="n">
-        <v>196</v>
-      </c>
-      <c r="I133" t="n">
-        <v>213921</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -5907,48 +5905,48 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>45814</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>108465</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>67550</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>9373</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>231202</v>
+        <v>414092.07</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C135" t="n">
-        <v>827615.79</v>
+        <v>6704</v>
       </c>
       <c r="D135" t="n">
-        <v>188952.59</v>
+        <v>174799</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>29122</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2739.85</v>
+        <v>3100</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I135" t="n">
-        <v>1019308.23</v>
+        <v>213921</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5960,187 +5958,243 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>45814</v>
+      </c>
+      <c r="F136" t="n">
+        <v>108465</v>
+      </c>
+      <c r="G136" t="n">
+        <v>67550</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9373</v>
+      </c>
+      <c r="I136" t="n">
+        <v>231202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" t="n">
+        <v>827615.79</v>
+      </c>
+      <c r="D137" t="n">
+        <v>188952.59</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2739.85</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1019308.23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
         <v>945.35</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E138" t="n">
         <v>3131.46</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F138" t="n">
         <v>10632.83</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G138" t="n">
         <v>38968.23</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H138" t="n">
         <v>1111.95</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I138" t="n">
         <v>54789.82000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1754746.98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C138" t="n">
-        <v>147500</v>
-      </c>
-      <c r="D138" t="n">
-        <v>971702.1000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1824.44</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2220.63</v>
-      </c>
-      <c r="G138" t="n">
-        <v>19900</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1143147.17</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>680648.9300000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" t="n">
+        <v>147500</v>
+      </c>
+      <c r="D140" t="n">
+        <v>971702.1000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1824.44</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2220.63</v>
+      </c>
+      <c r="G140" t="n">
+        <v>19900</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1143147.17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
         <v>38427.15</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F141" t="n">
         <v>103854.71</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G141" t="n">
         <v>225877.43</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H141" t="n">
         <v>3788.79</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I141" t="n">
         <v>371948.0800000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1" t="n"/>
-      <c r="B140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>205079.99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D141" t="n">
-        <v>243336</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1828</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3034</v>
-      </c>
-      <c r="G141" t="n">
-        <v>15200</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>264898</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>205079.99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D143" t="n">
+        <v>243336</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3034</v>
+      </c>
+      <c r="G143" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>264898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
         <v>11510</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G144" t="n">
         <v>6000</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>17510</v>
       </c>
     </row>
@@ -6148,12 +6202,12 @@
   <mergeCells count="53">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
@@ -6174,31 +6228,31 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A143:A144"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -6210,7 +6264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6410,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2401382</v>
+        <v>1376521.62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6470,15 +6524,17 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>189860</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6493,347 +6549,345 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>85777.11</v>
+        <v>197260</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59466</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6954</v>
+      </c>
+      <c r="G11" t="n">
+        <v>150161</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>216581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D11" t="n">
-        <v>189860</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>197260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>394477.36</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4980.03</v>
+      </c>
+      <c r="H12" t="n">
+        <v>989.59</v>
+      </c>
+      <c r="I12" t="n">
+        <v>400446.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>59466</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6954</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150161</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>216581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>394477.36</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1045.8</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>19641.62</v>
       </c>
       <c r="G13" t="n">
-        <v>4980.03</v>
+        <v>34068.41</v>
       </c>
       <c r="H13" t="n">
-        <v>989.59</v>
+        <v>3831.93</v>
       </c>
       <c r="I13" t="n">
-        <v>400446.98</v>
+        <v>58587.75999999998</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18891.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>239384.15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1502229.92</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29288.81</v>
+      </c>
+      <c r="F15" t="n">
+        <v>55749.39999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>174544.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2360.32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2003556.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1045.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19641.62</v>
-      </c>
-      <c r="G14" t="n">
-        <v>34068.41</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3831.93</v>
-      </c>
-      <c r="I14" t="n">
-        <v>58587.75999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18891.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C16" t="n">
-        <v>239384.15</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1502229.92</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29288.81</v>
+        <v>77270.91000000002</v>
       </c>
       <c r="F16" t="n">
-        <v>55749.39999999999</v>
+        <v>259497.7499999999</v>
       </c>
       <c r="G16" t="n">
-        <v>174544.05</v>
+        <v>158941.67</v>
       </c>
       <c r="H16" t="n">
-        <v>2360.32</v>
+        <v>72150.84</v>
       </c>
       <c r="I16" t="n">
-        <v>2003556.65</v>
+        <v>567861.1699999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1344344.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>226348</v>
+      </c>
+      <c r="D18" t="n">
+        <v>394298.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14774</v>
+      </c>
+      <c r="F18" t="n">
+        <v>38638.19999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>30832.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>704957.8999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>77270.91000000002</v>
-      </c>
-      <c r="F17" t="n">
-        <v>259497.7499999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>158941.67</v>
-      </c>
-      <c r="H17" t="n">
-        <v>72150.84</v>
-      </c>
-      <c r="I17" t="n">
-        <v>567861.1699999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1344344.84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C19" t="n">
-        <v>226348</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>394298.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>14774</v>
+        <v>35142.8</v>
       </c>
       <c r="F19" t="n">
-        <v>38638.19999999999</v>
+        <v>86689.60000000002</v>
       </c>
       <c r="G19" t="n">
-        <v>30832.4</v>
+        <v>82327.5</v>
       </c>
       <c r="H19" t="n">
-        <v>66.59999999999999</v>
+        <v>4973.099999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>704957.8999999999</v>
+        <v>209133</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>103738.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1929625.01</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2357412.62</v>
+      </c>
+      <c r="E21" t="n">
+        <v>50474</v>
+      </c>
+      <c r="F21" t="n">
+        <v>503.2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>158541.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4497175.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>35142.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>86689.60000000002</v>
-      </c>
-      <c r="G20" t="n">
-        <v>82327.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4973.099999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>209133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>103738.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C22" t="n">
-        <v>1625337.97</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1718093.54</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46050</v>
+        <v>4924.08</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>36046.55</v>
       </c>
       <c r="G22" t="n">
-        <v>46760</v>
+        <v>357007.39</v>
       </c>
       <c r="H22" t="n">
-        <v>145</v>
+        <v>5057.809999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>3436386.51</v>
+        <v>403035.8299999999</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -6842,19 +6896,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3795.7</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>25792.85</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>208480.95</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2437.88</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>240507.3799999999</v>
+        <v>3622360.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7342,19 +7396,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>60289.52</v>
+        <v>43390.52</v>
       </c>
       <c r="F41" t="n">
-        <v>106197.55</v>
+        <v>64915.55</v>
       </c>
       <c r="G41" t="n">
-        <v>388320.17</v>
+        <v>342312.17</v>
       </c>
       <c r="H41" t="n">
-        <v>19922.54</v>
+        <v>18138.54</v>
       </c>
       <c r="I41" t="n">
-        <v>574729.78</v>
+        <v>468756.78</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7508,19 +7562,19 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>73407</v>
+        <v>90306</v>
       </c>
       <c r="F47" t="n">
-        <v>214571</v>
+        <v>255853</v>
       </c>
       <c r="G47" t="n">
-        <v>111873</v>
+        <v>157881</v>
       </c>
       <c r="H47" t="n">
-        <v>5675</v>
+        <v>7459</v>
       </c>
       <c r="I47" t="n">
-        <v>405526</v>
+        <v>511499</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -8213,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2362007.35</v>
+        <v>557916.9</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8390,10 +8444,10 @@
         <v>65</v>
       </c>
       <c r="C79" t="n">
-        <v>2220856</v>
+        <v>2611851</v>
       </c>
       <c r="D79" t="n">
-        <v>651884</v>
+        <v>812884</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -8402,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>29062</v>
+        <v>30050</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2901802</v>
+        <v>3454785</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8423,1498 +8477,1496 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6794</v>
+        <v>15505</v>
       </c>
       <c r="F80" t="n">
-        <v>11156</v>
+        <v>29310</v>
       </c>
       <c r="G80" t="n">
-        <v>40553</v>
+        <v>142767</v>
       </c>
       <c r="H80" t="n">
-        <v>4262</v>
+        <v>25431</v>
       </c>
       <c r="I80" t="n">
-        <v>62765</v>
+        <v>213013</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2239565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C82" t="n">
         <v>1600</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D82" t="n">
         <v>96557.35000000001</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>98157.35000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1436.55</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2781</v>
-      </c>
-      <c r="G82" t="n">
-        <v>42410</v>
-      </c>
-      <c r="H82" t="n">
-        <v>42</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46669.55</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1436.55</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2781</v>
+      </c>
+      <c r="G83" t="n">
+        <v>42410</v>
+      </c>
+      <c r="H83" t="n">
+        <v>42</v>
+      </c>
+      <c r="I83" t="n">
+        <v>46669.55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>5000</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>340494</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>27620</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H85" t="n">
         <v>546</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I85" t="n">
         <v>368660</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
         <v>2120</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>2674</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G86" t="n">
         <v>205238</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H86" t="n">
         <v>6073</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I86" t="n">
         <v>216105</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C86" t="n">
-        <v>164271</v>
-      </c>
-      <c r="D86" t="n">
-        <v>598476</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="C87" t="n">
+        <v>172648</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1045711</v>
+      </c>
+      <c r="E87" t="n">
         <v>1812</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F87" t="n">
         <v>3870</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G87" t="n">
         <v>5411</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>773840</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="s">
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1229452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
         <v>11000</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E88" t="n">
         <v>59563</v>
       </c>
-      <c r="F87" t="n">
-        <v>140835</v>
-      </c>
-      <c r="G87" t="n">
-        <v>75178</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>286576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
+      <c r="F88" t="n">
+        <v>141359</v>
+      </c>
+      <c r="G88" t="n">
+        <v>77530</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>289452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
         <v>638566</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>638566</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
         <v>9704</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F90" t="n">
         <v>17049</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G90" t="n">
         <v>147225</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H90" t="n">
         <v>2319</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I90" t="n">
         <v>176297</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C91" t="n">
         <v>4858408.1</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D91" t="n">
         <v>874911.5599999998</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E91" t="n">
         <v>5688.17</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F91" t="n">
         <v>20552.02</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G91" t="n">
         <v>23600</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H91" t="n">
         <v>233</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I91" t="n">
         <v>5783392.850000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>46026.21</v>
-      </c>
-      <c r="F91" t="n">
-        <v>139741.48</v>
-      </c>
-      <c r="G91" t="n">
-        <v>164875.78</v>
-      </c>
-      <c r="H91" t="n">
-        <v>12176.82</v>
-      </c>
-      <c r="I91" t="n">
-        <v>362820.29</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>46026.21</v>
+      </c>
+      <c r="F92" t="n">
+        <v>139741.48</v>
+      </c>
+      <c r="G92" t="n">
+        <v>164875.78</v>
+      </c>
+      <c r="H92" t="n">
+        <v>12176.82</v>
+      </c>
+      <c r="I92" t="n">
+        <v>362820.29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>2303382</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C94" t="n">
         <v>762403.2499999999</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D94" t="n">
         <v>1994222.51</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E94" t="n">
         <v>22237.74</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F94" t="n">
         <v>91899.37</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G94" t="n">
         <v>307438.09</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H94" t="n">
         <v>106.3</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I94" t="n">
         <v>3178307.26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>63313.87</v>
-      </c>
-      <c r="E94" t="n">
-        <v>15231.24</v>
-      </c>
-      <c r="F94" t="n">
-        <v>61439.73</v>
-      </c>
-      <c r="G94" t="n">
-        <v>462803.11</v>
-      </c>
-      <c r="H94" t="n">
-        <v>62104.39</v>
-      </c>
-      <c r="I94" t="n">
-        <v>664892.34</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>63313.87</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15231.24</v>
+      </c>
+      <c r="F95" t="n">
+        <v>61439.73</v>
+      </c>
+      <c r="G95" t="n">
+        <v>462803.11</v>
+      </c>
+      <c r="H95" t="n">
+        <v>62104.39</v>
+      </c>
+      <c r="I95" t="n">
+        <v>664892.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5314998.28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1031039.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C97" t="n">
         <v>745242.5499999999</v>
       </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>745242.5499999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>42010</v>
-      </c>
-      <c r="F97" t="n">
-        <v>81420.39999999999</v>
-      </c>
-      <c r="G97" t="n">
-        <v>55798.2</v>
-      </c>
-      <c r="H97" t="n">
-        <v>150</v>
-      </c>
-      <c r="I97" t="n">
-        <v>179378.6</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>42010</v>
+      </c>
+      <c r="F98" t="n">
+        <v>81420.39999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>55798.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>150</v>
+      </c>
+      <c r="I98" t="n">
+        <v>179378.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>125500</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>7000</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>7000</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
         <v>800</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C102" t="n">
         <v>1824924.86</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D102" t="n">
         <v>5000149.59</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E102" t="n">
         <v>136792.82</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F102" t="n">
         <v>175626.26</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G102" t="n">
         <v>1084468.07</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H102" t="n">
         <v>14473.13</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I102" t="n">
         <v>8236434.729999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>142183.35</v>
-      </c>
-      <c r="F102" t="n">
-        <v>260861.98</v>
-      </c>
-      <c r="G102" t="n">
-        <v>790465.0299999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>103731.03</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1297241.39</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>142183.35</v>
+      </c>
+      <c r="F103" t="n">
+        <v>260861.98</v>
+      </c>
+      <c r="G103" t="n">
+        <v>790465.0299999999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>103731.03</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1297241.39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>25767442.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="s">
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16233766.85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C105" t="n">
         <v>727870</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D105" t="n">
         <v>168657</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E105" t="n">
         <v>1335</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F105" t="n">
         <v>4404</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G105" t="n">
         <v>42414</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>944680</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>26550</v>
-      </c>
-      <c r="E105" t="n">
-        <v>77909</v>
-      </c>
-      <c r="F105" t="n">
-        <v>290236</v>
-      </c>
-      <c r="G105" t="n">
-        <v>226587</v>
-      </c>
-      <c r="H105" t="n">
-        <v>18638</v>
-      </c>
-      <c r="I105" t="n">
-        <v>639920</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>26550</v>
+      </c>
+      <c r="E106" t="n">
+        <v>77909</v>
+      </c>
+      <c r="F106" t="n">
+        <v>290236</v>
+      </c>
+      <c r="G106" t="n">
+        <v>226587</v>
+      </c>
+      <c r="H106" t="n">
+        <v>18638</v>
+      </c>
+      <c r="I106" t="n">
+        <v>639920</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>205170</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="s">
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
         <v>168656</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>168656</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="1:9">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
         <v>9901.24</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F109" t="n">
         <v>23947.66</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G109" t="n">
         <v>11500</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>45348.9</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:9">
+      <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C110" t="n">
         <v>10000</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D110" t="n">
         <v>102391.88</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
         <v>206.75</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G110" t="n">
         <v>34016.2</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H110" t="n">
         <v>832.67</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I110" t="n">
         <v>147447.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="1:9">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
         <v>6457.109999999999</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F111" t="n">
         <v>23966.64000000001</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G111" t="n">
         <v>51965.15</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H111" t="n">
         <v>6150.51</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I111" t="n">
         <v>88539.41000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
+    <row r="112" spans="1:9">
+      <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C112" t="n">
         <v>797257</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D112" t="n">
         <v>3115267</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E112" t="n">
         <v>5502</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F112" t="n">
         <v>22363</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G112" t="n">
         <v>183583</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H112" t="n">
         <v>3000</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I112" t="n">
         <v>4126972</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>67428</v>
-      </c>
-      <c r="F112" t="n">
-        <v>193140</v>
-      </c>
-      <c r="G112" t="n">
-        <v>305389</v>
-      </c>
-      <c r="H112" t="n">
-        <v>14282</v>
-      </c>
-      <c r="I112" t="n">
-        <v>580239</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>67428</v>
+      </c>
+      <c r="F113" t="n">
+        <v>193140</v>
+      </c>
+      <c r="G113" t="n">
+        <v>305389</v>
+      </c>
+      <c r="H113" t="n">
+        <v>14282</v>
+      </c>
+      <c r="I113" t="n">
+        <v>580239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>1858318</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:9">
+      <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C115" t="n">
         <v>7835</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D115" t="n">
         <v>231449</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E115" t="n">
         <v>5556.059999999999</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>11036.1</v>
       </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>255876.16</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:9">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
         <v>19440.18</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F116" t="n">
         <v>47068.42999999999</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G116" t="n">
         <v>29350</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H116" t="n">
         <v>1355</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I116" t="n">
         <v>97213.60999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C117" t="n">
         <v>1826290</v>
       </c>
-      <c r="D116" t="n">
-        <v>1509779</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3187</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="D117" t="n">
+        <v>1523096</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5821</v>
+      </c>
+      <c r="F117" t="n">
         <v>5122</v>
       </c>
-      <c r="G116" t="n">
-        <v>488647</v>
-      </c>
-      <c r="H116" t="n">
-        <v>268</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3833293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="s">
+      <c r="G117" t="n">
+        <v>492447</v>
+      </c>
+      <c r="H117" t="n">
+        <v>393</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3853169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>71690</v>
-      </c>
-      <c r="F117" t="n">
-        <v>100294</v>
-      </c>
-      <c r="G117" t="n">
-        <v>244026</v>
-      </c>
-      <c r="H117" t="n">
-        <v>41093</v>
-      </c>
-      <c r="I117" t="n">
-        <v>457103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C118" t="n">
-        <v>215022.25</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>218107.03</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>7834</v>
+        <v>115201</v>
       </c>
       <c r="F118" t="n">
-        <v>7439</v>
+        <v>130981</v>
       </c>
       <c r="G118" t="n">
-        <v>1000</v>
+        <v>1979075</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>101776</v>
       </c>
       <c r="I118" t="n">
-        <v>449402.28</v>
+        <v>2327033</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6998109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>215022.25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>218107.03</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7834</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7439</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>449402.28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
         <v>56048.11</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F121" t="n">
         <v>87602.73</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G121" t="n">
         <v>49603.61</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H121" t="n">
         <v>21142.48</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I121" t="n">
         <v>214396.93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>670458.52</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121" t="n">
-        <v>293776.47</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1234021.74</v>
-      </c>
-      <c r="E121" t="n">
-        <v>422.78</v>
-      </c>
-      <c r="F121" t="n">
-        <v>7864.76</v>
-      </c>
-      <c r="G121" t="n">
-        <v>93991</v>
-      </c>
-      <c r="H121" t="n">
-        <v>14491.63</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1644568.38</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6659.31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>293776.47</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1234021.74</v>
+      </c>
+      <c r="E123" t="n">
+        <v>422.78</v>
+      </c>
+      <c r="F123" t="n">
+        <v>7864.76</v>
+      </c>
+      <c r="G123" t="n">
+        <v>93991</v>
+      </c>
+      <c r="H123" t="n">
+        <v>14491.63</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1644568.38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>40054.83</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F124" t="n">
         <v>146256.47</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G124" t="n">
         <v>378638.52</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H124" t="n">
         <v>52220.73</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I124" t="n">
         <v>617170.5499999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>297960.34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C124" t="n">
-        <v>461571</v>
-      </c>
-      <c r="D124" t="n">
-        <v>830411</v>
-      </c>
-      <c r="E124" t="n">
-        <v>4874</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>527506</v>
-      </c>
-      <c r="H124" t="n">
-        <v>3537</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1827899</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>297960.34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="n">
+        <v>461571</v>
+      </c>
+      <c r="D126" t="n">
+        <v>830411</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4874</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>527506</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3537</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1827899</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>28560</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F127" t="n">
         <v>76241</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G127" t="n">
         <v>157360</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H127" t="n">
         <v>16753</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I127" t="n">
         <v>278914</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>185571</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>55249</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>55249</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>185571</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>55249</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>55249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>17588</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F130" t="n">
         <v>26799</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G130" t="n">
         <v>14300</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H130" t="n">
         <v>2039</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I130" t="n">
         <v>60726</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1056679.22</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1012337.41</v>
-      </c>
-      <c r="E130" t="n">
-        <v>37738.36999999999</v>
-      </c>
-      <c r="F130" t="n">
-        <v>122312.31</v>
-      </c>
-      <c r="G130" t="n">
-        <v>109103.89</v>
-      </c>
-      <c r="H130" t="n">
-        <v>10760.7</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2348931.899999999</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1056679.22</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1012337.41</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37738.36999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>122312.31</v>
+      </c>
+      <c r="G132" t="n">
+        <v>109103.89</v>
+      </c>
+      <c r="H132" t="n">
+        <v>10760.7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2348931.899999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
         <v>41275.78999999999</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F133" t="n">
         <v>105225.7700000001</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G133" t="n">
         <v>193870.38</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H133" t="n">
         <v>12375.88</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I133" t="n">
         <v>352747.8199999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>414092.07</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6704</v>
-      </c>
-      <c r="D133" t="n">
-        <v>174799</v>
-      </c>
-      <c r="E133" t="n">
-        <v>29122</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>3100</v>
-      </c>
-      <c r="H133" t="n">
-        <v>196</v>
-      </c>
-      <c r="I133" t="n">
-        <v>213921</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -9923,48 +9975,48 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>45814</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>108465</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>67550</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>9373</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>231202</v>
+        <v>414092.07</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C135" t="n">
-        <v>827615.79</v>
+        <v>6704</v>
       </c>
       <c r="D135" t="n">
-        <v>188952.59</v>
+        <v>174799</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>29122</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2739.85</v>
+        <v>3100</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I135" t="n">
-        <v>1019308.23</v>
+        <v>213921</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -9976,187 +10028,243 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>45814</v>
+      </c>
+      <c r="F136" t="n">
+        <v>108465</v>
+      </c>
+      <c r="G136" t="n">
+        <v>67550</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9373</v>
+      </c>
+      <c r="I136" t="n">
+        <v>231202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" t="n">
+        <v>827615.79</v>
+      </c>
+      <c r="D137" t="n">
+        <v>188952.59</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2739.85</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1019308.23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
         <v>945.35</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E138" t="n">
         <v>3131.46</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F138" t="n">
         <v>10632.83</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G138" t="n">
         <v>38968.23</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H138" t="n">
         <v>1111.95</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I138" t="n">
         <v>54789.82000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1754746.98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C138" t="n">
-        <v>147500</v>
-      </c>
-      <c r="D138" t="n">
-        <v>971702.1000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1824.44</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2220.63</v>
-      </c>
-      <c r="G138" t="n">
-        <v>19900</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1143147.17</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>680648.9300000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" t="n">
+        <v>147500</v>
+      </c>
+      <c r="D140" t="n">
+        <v>971702.1000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1824.44</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2220.63</v>
+      </c>
+      <c r="G140" t="n">
+        <v>19900</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1143147.17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
         <v>38427.15</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F141" t="n">
         <v>103854.71</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G141" t="n">
         <v>225877.43</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H141" t="n">
         <v>3788.79</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I141" t="n">
         <v>371948.0800000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1" t="n"/>
-      <c r="B140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>205079.99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D141" t="n">
-        <v>243336</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1828</v>
-      </c>
-      <c r="F141" t="n">
-        <v>3034</v>
-      </c>
-      <c r="G141" t="n">
-        <v>15200</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>264898</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>205079.99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D143" t="n">
+        <v>243336</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3034</v>
+      </c>
+      <c r="G143" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>264898</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
         <v>11510</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G144" t="n">
         <v>6000</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>17510</v>
       </c>
     </row>
@@ -10164,12 +10272,12 @@
   <mergeCells count="53">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
@@ -10190,31 +10298,31 @@
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="A143:A144"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10482,16 +10590,16 @@
         <v>722948.8799999999</v>
       </c>
       <c r="C13" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
-        <v>866948.4400000001</v>
+        <v>760975.4400000001</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>1589897.32</v>
+        <v>1483924.32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10696,430 +10804,430 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4290396</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1889806</v>
+      </c>
+      <c r="E24" t="n">
         <v>31</v>
       </c>
-      <c r="B24" t="n">
-        <v>1087068</v>
-      </c>
-      <c r="C24" t="n">
-        <v>70</v>
-      </c>
-      <c r="D24" t="n">
-        <v>457146</v>
-      </c>
-      <c r="E24" t="n">
-        <v>30</v>
-      </c>
       <c r="F24" t="n">
-        <v>1544214</v>
+        <v>6180202</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B25" t="n">
-        <v>1105276</v>
+        <v>1060416</v>
       </c>
       <c r="C25" t="n">
         <v>70</v>
       </c>
       <c r="D25" t="n">
-        <v>479324</v>
+        <v>458488</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>1584600</v>
+        <v>1518904</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2280569.219999999</v>
+        <v>1105276</v>
       </c>
       <c r="C26" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D26" t="n">
-        <v>421110.5</v>
+        <v>479324</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>2701679.719999999</v>
+        <v>1584600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>766769.1</v>
+        <v>1087068</v>
       </c>
       <c r="C27" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D27" t="n">
-        <v>147321.8</v>
+        <v>457146</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>914090.9</v>
+        <v>1544214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n">
-        <v>177929.16</v>
+        <v>3676893.89</v>
       </c>
       <c r="C28" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D28" t="n">
-        <v>31305</v>
+        <v>1223317.42</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
-        <v>209234.16</v>
+        <v>4900211.310000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>299979.33</v>
+        <v>2964567</v>
       </c>
       <c r="C29" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" t="n">
-        <v>53110.44</v>
+        <v>703231</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>353089.77</v>
+        <v>3667798</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B30" t="n">
-        <v>394724.3300000001</v>
+        <v>2280569.219999999</v>
       </c>
       <c r="C30" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>64310.41</v>
+        <v>421110.5</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>459034.7400000001</v>
+        <v>2701679.719999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B31" t="n">
-        <v>8382309.039999998</v>
+        <v>766769.1</v>
       </c>
       <c r="C31" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D31" t="n">
-        <v>1151367.08</v>
+        <v>147321.8</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>9533676.119999997</v>
+        <v>914090.9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>664919.25</v>
+        <v>177929.16</v>
       </c>
       <c r="C32" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D32" t="n">
-        <v>94148.565</v>
+        <v>31305</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>759067.8149999999</v>
+        <v>209234.16</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>2286095.08</v>
+        <v>299979.33</v>
       </c>
       <c r="C33" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D33" t="n">
-        <v>285322.74</v>
+        <v>53110.44</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>2571417.819999999</v>
+        <v>353089.77</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>242708</v>
+        <v>394724.3300000001</v>
       </c>
       <c r="C34" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D34" t="n">
-        <v>24393</v>
+        <v>64310.41</v>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>267101</v>
+        <v>459034.7400000001</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B35" t="n">
-        <v>220687.5</v>
+        <v>664919.25</v>
       </c>
       <c r="C35" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D35" t="n">
-        <v>15299.41</v>
+        <v>94148.565</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>235986.91</v>
+        <v>759067.8149999999</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B36" t="n">
-        <v>264916</v>
+        <v>805908</v>
       </c>
       <c r="C36" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D36" t="n">
-        <v>17492</v>
+        <v>105973</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>282408</v>
+        <v>911881</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B37" t="n">
-        <v>5883513.71</v>
+        <v>8382309.039999998</v>
       </c>
       <c r="C37" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D37" t="n">
-        <v>262699.43</v>
+        <v>1151367.08</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>6146213.14</v>
+        <v>9533676.119999997</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>1041681.31</v>
+        <v>2286095.08</v>
       </c>
       <c r="C38" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D38" t="n">
-        <v>32416.74</v>
+        <v>285322.74</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>1074098.05</v>
+        <v>2571417.819999999</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n">
-        <v>4758902</v>
+        <v>242708</v>
       </c>
       <c r="C39" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D39" t="n">
-        <v>51769</v>
+        <v>24393</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>4810671</v>
+        <v>267101</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" t="n">
-        <v>924621.15</v>
+        <v>220687.5</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>15299.41</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>924621.15</v>
+        <v>235986.91</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B41" t="n">
-        <v>214004.9</v>
+        <v>264916</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>17492</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>214004.9</v>
+        <v>282408</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>1060416</v>
+        <v>5883513.71</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>262699.43</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>1060416</v>
+        <v>6146213.14</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B43" t="n">
-        <v>584765</v>
+        <v>1041681.31</v>
       </c>
       <c r="C43" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32416.74</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>584765</v>
+        <v>1074098.05</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B44" t="n">
-        <v>2964567</v>
+        <v>4758902</v>
       </c>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>51769</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>2964567</v>
+        <v>4810671</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>4290396</v>
+        <v>7800</v>
       </c>
       <c r="C45" t="n">
         <v>100</v>
@@ -11131,15 +11239,15 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>4290396</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>389912.17</v>
+        <v>924621.15</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
@@ -11151,15 +11259,15 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>389912.17</v>
+        <v>924621.15</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B47" t="n">
-        <v>805908</v>
+        <v>584765</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
@@ -11171,15 +11279,15 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>805908</v>
+        <v>584765</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B48" t="n">
-        <v>150318.75</v>
+        <v>389912.17</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
@@ -11191,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>150318.75</v>
+        <v>389912.17</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -11216,10 +11324,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>542635.6900000001</v>
+        <v>150318.75</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
@@ -11231,15 +11339,15 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>542635.6900000001</v>
+        <v>150318.75</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" t="n">
-        <v>140177.05</v>
+        <v>542635.6900000001</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
@@ -11251,15 +11359,15 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>140177.05</v>
+        <v>542635.6900000001</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" t="n">
-        <v>3676893.89</v>
+        <v>140177.05</v>
       </c>
       <c r="C52" t="n">
         <v>100</v>
@@ -11271,15 +11379,15 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>3676893.89</v>
+        <v>140177.05</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B53" t="n">
-        <v>7800</v>
+        <v>214004.9</v>
       </c>
       <c r="C53" t="n">
         <v>100</v>
@@ -11291,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>7800</v>
+        <v>214004.9</v>
       </c>
     </row>
     <row r="54" spans="1:6">

--- a/data/99. analyzes/excel/2015_pharma_summarize.xlsx
+++ b/data/99. analyzes/excel/2015_pharma_summarize.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>info</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>hcp</t>
+  </si>
+  <si>
+    <t>hco_amount</t>
+  </si>
+  <si>
+    <t>hcp_amount</t>
   </si>
   <si>
     <t>offen</t>
@@ -4836,7 +4842,7 @@
         <v>62104.39</v>
       </c>
       <c r="I95" t="n">
-        <v>664892.34</v>
+        <v>664892.3400000001</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6264,7 +6270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6309,16 +6315,16 @@
         <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>447530</v>
+        <v>446030</v>
       </c>
       <c r="D2" t="n">
-        <v>3865735</v>
+        <v>3859535</v>
       </c>
       <c r="E2" t="n">
-        <v>13229</v>
+        <v>3597</v>
       </c>
       <c r="F2" t="n">
-        <v>26328</v>
+        <v>6413</v>
       </c>
       <c r="G2" t="n">
         <v>80936</v>
@@ -6327,40 +6333,40 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4433758</v>
+        <v>4396511</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="E3" t="n">
-        <v>90780</v>
+        <v>9632</v>
       </c>
       <c r="F3" t="n">
-        <v>185752</v>
+        <v>19915</v>
       </c>
       <c r="G3" t="n">
-        <v>94387</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5994</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>376913</v>
+        <v>37247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6369,54 +6375,52 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>87498</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>180875</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>89355</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4663</v>
       </c>
       <c r="I4" t="n">
-        <v>1044454</v>
+        <v>362391</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
-        <v>703446.2500000001</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>83843.92</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3850</v>
+        <v>3282</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4877</v>
       </c>
       <c r="G5" t="n">
-        <v>14855</v>
+        <v>5032</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1331</v>
       </c>
       <c r="I5" t="n">
-        <v>805995.1700000002</v>
+        <v>14522</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6425,60 +6429,60 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45413.21</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>65672.11</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>64659.29</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>43120.59</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>218865.2</v>
+        <v>1044454</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>498505.4600000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>65843.92</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3850</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13355</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1376521.62</v>
+        <v>581554.3800000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>5000</v>
+        <v>204940.79</v>
       </c>
       <c r="D8" t="n">
-        <v>30929.83</v>
+        <v>18000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -6487,13 +6491,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>9143.279999999999</v>
+        <v>1500</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>45073.11</v>
+        <v>224440.79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6508,54 +6512,52 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>32532.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>53215.84</v>
       </c>
       <c r="G9" t="n">
-        <v>40704</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4037.24</v>
       </c>
       <c r="I9" t="n">
-        <v>40704</v>
+        <v>90785.27999999998</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>189860</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12881.01</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>12456.27</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>63659.29</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39083.35</v>
       </c>
       <c r="I10" t="n">
-        <v>197260</v>
+        <v>128079.92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6564,24 +6566,24 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>59466</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6954</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>150161</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>216581</v>
+        <v>1376521.62</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
@@ -6590,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>394477.36</v>
+        <v>8000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6599,46 +6601,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4980.03</v>
+        <v>1700</v>
       </c>
       <c r="H12" t="n">
-        <v>989.59</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>400446.98</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>22929.83</v>
       </c>
       <c r="E13" t="n">
-        <v>1045.8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19641.62</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34068.41</v>
+        <v>7443.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3831.93</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>58587.75999999998</v>
+        <v>35373.11</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -6653,81 +6655,81 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15850</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18891.38</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24854</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="n">
-        <v>239384.15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1502229.92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29288.81</v>
-      </c>
-      <c r="F15" t="n">
-        <v>55749.39999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>174544.05</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2360.32</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2003556.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>56600</v>
       </c>
       <c r="E16" t="n">
-        <v>77270.91000000002</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>259497.7499999999</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>158941.67</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72150.84</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>567861.1699999999</v>
+        <v>62800</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>133260</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6742,42 +6744,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1344344.84</v>
+        <v>134460</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="n">
-        <v>226348</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>394298.7</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>14774</v>
+        <v>2908</v>
       </c>
       <c r="F18" t="n">
-        <v>38638.19999999999</v>
+        <v>6954</v>
       </c>
       <c r="G18" t="n">
-        <v>30832.4</v>
+        <v>44000</v>
       </c>
       <c r="H18" t="n">
-        <v>66.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>704957.8999999999</v>
+        <v>53862</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -6786,31 +6786,33 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35142.8</v>
+        <v>56558</v>
       </c>
       <c r="F19" t="n">
-        <v>86689.60000000002</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>82327.5</v>
+        <v>106161</v>
       </c>
       <c r="H19" t="n">
-        <v>4973.099999999999</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>209133</v>
+        <v>162719</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>346152.38</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6819,42 +6821,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4980.03</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>989.59</v>
       </c>
       <c r="I20" t="n">
-        <v>103738.8</v>
+        <v>352122.0000000001</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" t="n">
-        <v>1929625.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2357412.62</v>
+        <v>48324.98</v>
       </c>
       <c r="E21" t="n">
-        <v>50474</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>503.2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>158541.85</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>618.8</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4497175.48</v>
+        <v>48324.98</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6869,114 +6869,114 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4924.08</v>
+        <v>415.8</v>
       </c>
       <c r="F22" t="n">
-        <v>36046.55</v>
+        <v>17003.81</v>
       </c>
       <c r="G22" t="n">
-        <v>357007.39</v>
+        <v>23301.96</v>
       </c>
       <c r="H22" t="n">
-        <v>5057.809999999999</v>
+        <v>1880.76</v>
       </c>
       <c r="I22" t="n">
-        <v>403035.8299999999</v>
+        <v>42602.32999999998</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>630</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2637.81</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10766.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1951.17</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15985.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3622360.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18891.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="n">
-        <v>33800</v>
-      </c>
-      <c r="D24" t="n">
-        <v>58466.48</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10944.9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>22157.82</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1563</v>
-      </c>
-      <c r="I24" t="n">
-        <v>133932.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>239384.15</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1501229.92</v>
       </c>
       <c r="E25" t="n">
-        <v>77.40000000000001</v>
+        <v>29288.81</v>
       </c>
       <c r="F25" t="n">
-        <v>1167.45</v>
+        <v>55749.39999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>5000</v>
+        <v>174544.05</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2360.32</v>
       </c>
       <c r="I25" t="n">
-        <v>6244.85</v>
+        <v>2002556.65</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -6995,38 +6995,36 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="n">
-        <v>339947.56</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>143542.58</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>830.08</v>
+        <v>56953.23000000002</v>
       </c>
       <c r="F27" t="n">
-        <v>7440.59</v>
+        <v>157503.1999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>4022.93</v>
+        <v>58910</v>
       </c>
       <c r="H27" t="n">
-        <v>2208</v>
+        <v>10172</v>
       </c>
       <c r="I27" t="n">
-        <v>497991.74</v>
+        <v>283538.4299999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -7035,19 +7033,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6381.219999999999</v>
+        <v>20317.68</v>
       </c>
       <c r="F28" t="n">
-        <v>36612.73</v>
+        <v>101994.55</v>
       </c>
       <c r="G28" t="n">
-        <v>1650</v>
+        <v>100031.67</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>61978.84</v>
       </c>
       <c r="I28" t="n">
-        <v>44643.95</v>
+        <v>284322.74</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7074,69 +7072,69 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120000</v>
+        <v>1344344.84</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C30" t="n">
-        <v>45045.79</v>
+        <v>189165.5</v>
       </c>
       <c r="D30" t="n">
-        <v>4836213.99</v>
+        <v>366098.7</v>
       </c>
       <c r="E30" t="n">
-        <v>28503.3</v>
+        <v>13761.9</v>
       </c>
       <c r="F30" t="n">
-        <v>11715.5</v>
+        <v>34304.59999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>505311.72</v>
+        <v>27832.4</v>
       </c>
       <c r="H30" t="n">
-        <v>12536.05</v>
+        <v>33.3</v>
       </c>
       <c r="I30" t="n">
-        <v>5439326.35</v>
+        <v>631196.3999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37182.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="E31" t="n">
-        <v>179670.16</v>
+        <v>1012.1</v>
       </c>
       <c r="F31" t="n">
-        <v>711151.21</v>
+        <v>4333.6</v>
       </c>
       <c r="G31" t="n">
-        <v>586483.47</v>
+        <v>3000</v>
       </c>
       <c r="H31" t="n">
-        <v>38976.78</v>
+        <v>33.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1516281.62</v>
+        <v>73761.50000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -7145,54 +7143,52 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>23211.3</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>64212.30000000002</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>47100</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1049.099999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>2144044.9</v>
+        <v>135572.7</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>217590</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>11931.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>22477.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>35227.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3924</v>
       </c>
       <c r="I33" t="n">
-        <v>217590</v>
+        <v>73560.3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -7201,81 +7197,81 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6883</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>14728</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49511</v>
+        <v>103738.8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C35" t="n">
-        <v>120000</v>
+        <v>1625337.97</v>
       </c>
       <c r="D35" t="n">
-        <v>220006.19</v>
+        <v>1718093.54</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>47009</v>
       </c>
       <c r="F35" t="n">
-        <v>158.7</v>
+        <v>503.2</v>
       </c>
       <c r="G35" t="n">
-        <v>462970.17</v>
+        <v>46760</v>
       </c>
       <c r="H35" t="n">
-        <v>9636.99</v>
+        <v>145</v>
       </c>
       <c r="I35" t="n">
-        <v>812772.05</v>
+        <v>3437848.71</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>304287.04</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>639319.08</v>
       </c>
       <c r="E36" t="n">
-        <v>9629.049999999999</v>
+        <v>3465</v>
       </c>
       <c r="F36" t="n">
-        <v>39579.58</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147360.83</v>
+        <v>111781.85</v>
       </c>
       <c r="H36" t="n">
-        <v>23518.25</v>
+        <v>473.8</v>
       </c>
       <c r="I36" t="n">
-        <v>220087.71</v>
+        <v>1059326.77</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -7284,54 +7280,52 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2836.7</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>25289.65</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>208480.95</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2437.88</v>
       </c>
       <c r="I37" t="n">
-        <v>640001.39</v>
+        <v>239045.1799999999</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>136003.7</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2087.38</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10756.9</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>148526.44</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2619.93</v>
       </c>
       <c r="I38" t="n">
-        <v>141003.7</v>
+        <v>163990.65</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -7343,45 +7337,45 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6715.05</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9315.049999999999</v>
+        <v>3622360.1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C40" t="n">
-        <v>309456.85</v>
+        <v>33800</v>
       </c>
       <c r="D40" t="n">
-        <v>521972.1900000001</v>
+        <v>58466.48</v>
       </c>
       <c r="E40" t="n">
-        <v>2470</v>
+        <v>10944.9</v>
       </c>
       <c r="F40" t="n">
-        <v>5800</v>
+        <v>22157.82</v>
       </c>
       <c r="G40" t="n">
-        <v>175468.5</v>
+        <v>7000</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="I40" t="n">
-        <v>1015167.54</v>
+        <v>133932.2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7396,19 +7390,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>43390.52</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>64915.55</v>
+        <v>1167.45</v>
       </c>
       <c r="G41" t="n">
-        <v>342312.17</v>
+        <v>5000</v>
       </c>
       <c r="H41" t="n">
-        <v>18138.54</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>468756.78</v>
+        <v>6244.85</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7435,36 +7429,36 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>199397.76</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C43" t="n">
-        <v>2480955</v>
+        <v>339947.56</v>
       </c>
       <c r="D43" t="n">
-        <v>899863</v>
+        <v>143542.58</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>830.08</v>
       </c>
       <c r="F43" t="n">
-        <v>65</v>
+        <v>7440.59</v>
       </c>
       <c r="G43" t="n">
-        <v>119222</v>
+        <v>4022.93</v>
       </c>
       <c r="H43" t="n">
-        <v>539</v>
+        <v>2208</v>
       </c>
       <c r="I43" t="n">
-        <v>3500644</v>
+        <v>497991.74</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7479,19 +7473,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>26251</v>
+        <v>6381.219999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>98801</v>
+        <v>36612.73</v>
       </c>
       <c r="G44" t="n">
-        <v>279489</v>
+        <v>1650</v>
       </c>
       <c r="H44" t="n">
-        <v>19127</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>423668</v>
+        <v>44643.95</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7518,69 +7512,69 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2380849</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C46" t="n">
-        <v>15739</v>
+        <v>43295.35</v>
       </c>
       <c r="D46" t="n">
-        <v>201233</v>
+        <v>2126763.45</v>
       </c>
       <c r="E46" t="n">
-        <v>118456</v>
+        <v>11221.55</v>
       </c>
       <c r="F46" t="n">
-        <v>22113</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>42609</v>
+        <v>352575.72</v>
       </c>
       <c r="H46" t="n">
-        <v>232</v>
+        <v>10133.16</v>
       </c>
       <c r="I46" t="n">
-        <v>400382</v>
+        <v>2543989.23</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1750.44</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2709450.54</v>
       </c>
       <c r="E47" t="n">
-        <v>90306</v>
+        <v>17281.75</v>
       </c>
       <c r="F47" t="n">
-        <v>255853</v>
+        <v>11715.5</v>
       </c>
       <c r="G47" t="n">
-        <v>157881</v>
+        <v>152736</v>
       </c>
       <c r="H47" t="n">
-        <v>7459</v>
+        <v>2402.89</v>
       </c>
       <c r="I47" t="n">
-        <v>511499</v>
+        <v>2895337.12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -7589,54 +7583,52 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>41888.96000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>182999.0699999999</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>200152.27</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>15105.88</v>
       </c>
       <c r="I48" t="n">
-        <v>570684</v>
+        <v>440146.1800000001</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C49" t="n">
-        <v>206170</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>407473</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>137781.2</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>528152.14</v>
       </c>
       <c r="G49" t="n">
-        <v>21361.85</v>
+        <v>386331.2</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>23870.9</v>
       </c>
       <c r="I49" t="n">
-        <v>635004.85</v>
+        <v>1076135.44</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -7645,31 +7637,33 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>8440.25</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>75327.94999999998</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>31876.665</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>8418.1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>124062.965</v>
+        <v>2144044.9</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>197902</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -7684,36 +7678,34 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>281987</v>
+        <v>197902</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" t="n">
-        <v>106000</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>592390</v>
+        <v>19688</v>
       </c>
       <c r="E52" t="n">
-        <v>3799</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>12864</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>8480</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>723533</v>
+        <v>19688</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7728,25 +7720,25 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>57925</v>
+        <v>6883</v>
       </c>
       <c r="F53" t="n">
-        <v>85618</v>
+        <v>14023</v>
       </c>
       <c r="G53" t="n">
-        <v>117011</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>4710</v>
+        <v>23900</v>
       </c>
       <c r="I53" t="n">
-        <v>265264</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -7758,78 +7750,78 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I54" t="n">
-        <v>8851</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="D55" t="n">
-        <v>47034</v>
+        <v>209756.19</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>158.7</v>
       </c>
       <c r="G55" t="n">
-        <v>14116.52</v>
+        <v>171087.25</v>
       </c>
       <c r="H55" t="n">
-        <v>3772.7</v>
+        <v>9636.99</v>
       </c>
       <c r="I55" t="n">
-        <v>64923.22</v>
+        <v>510639.13</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>10250</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>429.24</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>15236.73</v>
+        <v>291882.92</v>
       </c>
       <c r="H56" t="n">
-        <v>12998.64</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>28664.61</v>
+        <v>302132.92</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -7838,187 +7830,185 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2915.05</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>8300.07</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>84308.09999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>17580.44</v>
       </c>
       <c r="I57" t="n">
-        <v>533682.46</v>
+        <v>113103.66</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C58" t="n">
-        <v>78777</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1002283</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>6714</v>
       </c>
       <c r="F58" t="n">
-        <v>101</v>
+        <v>31279.51</v>
       </c>
       <c r="G58" t="n">
-        <v>70463</v>
+        <v>63052.73</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>5937.81</v>
       </c>
       <c r="I58" t="n">
-        <v>1151624</v>
+        <v>106984.05</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>640001.39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>136003.7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>141003.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10990</v>
-      </c>
-      <c r="F59" t="n">
-        <v>20766</v>
-      </c>
-      <c r="G59" t="n">
-        <v>314257</v>
-      </c>
-      <c r="H59" t="n">
-        <v>46577</v>
-      </c>
-      <c r="I59" t="n">
-        <v>392590</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>143504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6715.05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2600</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9315.049999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C61" t="n">
-        <v>409200</v>
-      </c>
-      <c r="D61" t="n">
-        <v>176537</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1236</v>
-      </c>
-      <c r="F61" t="n">
-        <v>282</v>
-      </c>
-      <c r="G61" t="n">
-        <v>19932</v>
-      </c>
-      <c r="H61" t="n">
-        <v>230</v>
-      </c>
-      <c r="I61" t="n">
-        <v>607417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>88705.2</v>
       </c>
       <c r="D62" t="n">
-        <v>1139</v>
+        <v>352141.78</v>
       </c>
       <c r="E62" t="n">
-        <v>15379</v>
+        <v>2470</v>
       </c>
       <c r="F62" t="n">
-        <v>27052</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>29974</v>
+        <v>136037.74</v>
       </c>
       <c r="H62" t="n">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>77991</v>
+        <v>579354.72</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>10000</v>
+        <v>220751.65</v>
       </c>
       <c r="D63" t="n">
-        <v>148976.71</v>
+        <v>169830.41</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2159.09</v>
+        <v>5800</v>
       </c>
       <c r="G63" t="n">
-        <v>29851.66</v>
+        <v>39430.76</v>
       </c>
       <c r="H63" t="n">
-        <v>4191.06</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>195178.52</v>
+        <v>435812.82</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8033,131 +8023,129 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>9144.299999999999</v>
+        <v>9549.450000000003</v>
       </c>
       <c r="F64" t="n">
-        <v>30981.83</v>
+        <v>24276.27</v>
       </c>
       <c r="G64" t="n">
-        <v>8363.130000000001</v>
+        <v>107305.48</v>
       </c>
       <c r="H64" t="n">
-        <v>71.72</v>
+        <v>2462.96</v>
       </c>
       <c r="I64" t="n">
-        <v>48560.98000000001</v>
+        <v>143594.16</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>33841.07</v>
+      </c>
+      <c r="F65" t="n">
+        <v>40639.28</v>
+      </c>
+      <c r="G65" t="n">
+        <v>235006.69</v>
+      </c>
+      <c r="H65" t="n">
+        <v>15675.58</v>
+      </c>
+      <c r="I65" t="n">
+        <v>325162.6200000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>254713.88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>199397.76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" t="n">
-        <v>11177</v>
-      </c>
-      <c r="D66" t="n">
-        <v>28692</v>
-      </c>
-      <c r="E66" t="n">
-        <v>459</v>
-      </c>
-      <c r="F66" t="n">
-        <v>754</v>
-      </c>
-      <c r="G66" t="n">
-        <v>11113</v>
-      </c>
-      <c r="H66" t="n">
-        <v>347</v>
-      </c>
-      <c r="I66" t="n">
-        <v>52542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>247353</v>
       </c>
       <c r="E67" t="n">
-        <v>5513</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4950</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>113865</v>
+        <v>17352</v>
       </c>
       <c r="H67" t="n">
-        <v>12023</v>
+        <v>401</v>
       </c>
       <c r="I67" t="n">
-        <v>136351</v>
+        <v>295106</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2450955</v>
+      </c>
+      <c r="D68" t="n">
+        <v>652510</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
         <v>65</v>
       </c>
-      <c r="C68" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D68" t="n">
-        <v>131203.96</v>
-      </c>
-      <c r="E68" t="n">
-        <v>422.78</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3364.76</v>
-      </c>
       <c r="G68" t="n">
-        <v>24394</v>
+        <v>101870</v>
       </c>
       <c r="H68" t="n">
-        <v>7515.1</v>
+        <v>138</v>
       </c>
       <c r="I68" t="n">
-        <v>206900.6</v>
+        <v>3205538</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8172,137 +8160,135 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>8379.719999999999</v>
+        <v>12915</v>
       </c>
       <c r="F69" t="n">
-        <v>27327.25000000001</v>
+        <v>52787</v>
       </c>
       <c r="G69" t="n">
-        <v>133271.04</v>
+        <v>117554</v>
       </c>
       <c r="H69" t="n">
-        <v>14033.56</v>
+        <v>6390</v>
       </c>
       <c r="I69" t="n">
-        <v>183011.57</v>
+        <v>189646</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
-        <v>672033.58</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1161050.22</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>28021.98</v>
+        <v>13336</v>
       </c>
       <c r="F70" t="n">
-        <v>111432.6</v>
+        <v>46014</v>
       </c>
       <c r="G70" t="n">
-        <v>77751.48</v>
+        <v>161935</v>
       </c>
       <c r="H70" t="n">
-        <v>6793.48</v>
+        <v>12737</v>
       </c>
       <c r="I70" t="n">
-        <v>2057083.34</v>
+        <v>234022</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2380849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15739</v>
+      </c>
+      <c r="D72" t="n">
+        <v>201233</v>
+      </c>
+      <c r="E72" t="n">
+        <v>118456</v>
+      </c>
+      <c r="F72" t="n">
+        <v>22113</v>
+      </c>
+      <c r="G72" t="n">
+        <v>42609</v>
+      </c>
+      <c r="H72" t="n">
+        <v>232</v>
+      </c>
+      <c r="I72" t="n">
+        <v>400382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>40316.87</v>
-      </c>
-      <c r="F71" t="n">
-        <v>155293.29</v>
-      </c>
-      <c r="G71" t="n">
-        <v>100880.09</v>
-      </c>
-      <c r="H71" t="n">
-        <v>8433.76</v>
-      </c>
-      <c r="I71" t="n">
-        <v>304924.01</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>557916.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C73" t="n">
-        <v>496046.29</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1849405.739999999</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>73407</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>214571</v>
       </c>
       <c r="G73" t="n">
-        <v>58569.94</v>
+        <v>111873</v>
       </c>
       <c r="H73" t="n">
-        <v>43486.36</v>
+        <v>5675</v>
       </c>
       <c r="I73" t="n">
-        <v>2447508.329999999</v>
+        <v>405526</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -8311,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>2728.86</v>
+        <v>16899</v>
       </c>
       <c r="F74" t="n">
-        <v>5150.139999999999</v>
+        <v>41282</v>
       </c>
       <c r="G74" t="n">
-        <v>129157.95</v>
+        <v>46008</v>
       </c>
       <c r="H74" t="n">
-        <v>484.79</v>
+        <v>1784</v>
       </c>
       <c r="I74" t="n">
-        <v>137521.74</v>
+        <v>105973</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8350,21 +8336,21 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>176513.07</v>
+        <v>570684</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C76" t="n">
-        <v>800</v>
+        <v>206170</v>
       </c>
       <c r="D76" t="n">
-        <v>112977.9</v>
+        <v>375473</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -8373,46 +8359,46 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>21361.85</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>113777.9</v>
+        <v>603004.85</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="E77" t="n">
-        <v>10856.4</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>20060.1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>60553.77</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>3985.99</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>95456.25999999999</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -8421,54 +8407,52 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>7960.450000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>33686.69999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>11849.15</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>8418.1</v>
       </c>
       <c r="I78" t="n">
-        <v>7260</v>
+        <v>61914.39999999999</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C79" t="n">
-        <v>2611851</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>812884</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>479.8</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>41641.25</v>
       </c>
       <c r="G79" t="n">
-        <v>30050</v>
+        <v>20027.515</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3454785</v>
+        <v>62148.565</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -8477,60 +8461,60 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>15505</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>29310</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>142767</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>25431</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>213013</v>
+        <v>281987</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>86000</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>399523</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3799</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>12864</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>6180</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2239565</v>
+        <v>508366</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C82" t="n">
-        <v>1600</v>
+        <v>20000</v>
       </c>
       <c r="D82" t="n">
-        <v>96557.35000000001</v>
+        <v>192867</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -8539,13 +8523,13 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>98157.35000000001</v>
+        <v>215167</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8560,131 +8544,129 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>1436.55</v>
+        <v>23423</v>
       </c>
       <c r="F83" t="n">
-        <v>2781</v>
+        <v>30390</v>
       </c>
       <c r="G83" t="n">
-        <v>42410</v>
+        <v>58842</v>
       </c>
       <c r="H83" t="n">
-        <v>42</v>
+        <v>3689</v>
       </c>
       <c r="I83" t="n">
-        <v>46669.55</v>
+        <v>116344</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>34502</v>
+      </c>
+      <c r="F84" t="n">
+        <v>55228</v>
+      </c>
+      <c r="G84" t="n">
+        <v>58169</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1021</v>
+      </c>
+      <c r="I84" t="n">
+        <v>148920</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8851</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>340494</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>27620</v>
-      </c>
-      <c r="H85" t="n">
-        <v>546</v>
-      </c>
-      <c r="I85" t="n">
-        <v>368660</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>32484</v>
       </c>
       <c r="E86" t="n">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2674</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>205238</v>
+        <v>8725.32</v>
       </c>
       <c r="H86" t="n">
-        <v>6073</v>
+        <v>3022.7</v>
       </c>
       <c r="I86" t="n">
-        <v>216105</v>
+        <v>44232.02</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C87" t="n">
-        <v>172648</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1045711</v>
+        <v>14550</v>
       </c>
       <c r="E87" t="n">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>5411</v>
+        <v>5391.2</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I87" t="n">
-        <v>1229452</v>
+        <v>20691.2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -8696,57 +8678,55 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>59563</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>141359</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>77530</v>
+        <v>7000</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>7095.27</v>
       </c>
       <c r="I88" t="n">
-        <v>289452</v>
+        <v>14095.27</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>638566</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>429.24</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>8236.73</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>5903.37</v>
       </c>
       <c r="I89" t="n">
-        <v>638566</v>
+        <v>14569.34</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -8755,81 +8735,81 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>9704</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>17049</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>147225</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2319</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>176297</v>
+        <v>533682.46</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C91" t="n">
-        <v>4858408.1</v>
+        <v>30000</v>
       </c>
       <c r="D91" t="n">
-        <v>874911.5599999998</v>
+        <v>826098</v>
       </c>
       <c r="E91" t="n">
-        <v>5688.17</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>20552.02</v>
+        <v>38</v>
       </c>
       <c r="G91" t="n">
-        <v>23600</v>
+        <v>42225</v>
       </c>
       <c r="H91" t="n">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>5783392.850000001</v>
+        <v>898361</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>48777</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>176185</v>
       </c>
       <c r="E92" t="n">
-        <v>46026.21</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>139741.48</v>
+        <v>63</v>
       </c>
       <c r="G92" t="n">
-        <v>164875.78</v>
+        <v>28238</v>
       </c>
       <c r="H92" t="n">
-        <v>12176.82</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>362820.29</v>
+        <v>253263</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -8838,131 +8818,129 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>7909</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>12939</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>160657</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>7202</v>
       </c>
       <c r="I93" t="n">
-        <v>2303382</v>
+        <v>188707</v>
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C94" t="n">
-        <v>762403.2499999999</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>1994222.51</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>22237.74</v>
+        <v>3081</v>
       </c>
       <c r="F94" t="n">
-        <v>91899.37</v>
+        <v>7827</v>
       </c>
       <c r="G94" t="n">
-        <v>307438.09</v>
+        <v>153600</v>
       </c>
       <c r="H94" t="n">
-        <v>106.3</v>
+        <v>39375</v>
       </c>
       <c r="I94" t="n">
-        <v>3178307.26</v>
+        <v>203883</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>63313.87</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>15231.24</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>61439.73</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>462803.11</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>62104.39</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>664892.34</v>
+        <v>143504</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1" t="n"/>
+      <c r="A96" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>204600</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>80096</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>9716</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I96" t="n">
-        <v>1031039.46</v>
+        <v>295286</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C97" t="n">
-        <v>745242.5499999999</v>
+        <v>204600</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>96441</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>10216</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I97" t="n">
-        <v>745242.5499999999</v>
+        <v>312131</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8974,28 +8952,28 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1139</v>
       </c>
       <c r="E98" t="n">
-        <v>42010</v>
+        <v>15379</v>
       </c>
       <c r="F98" t="n">
-        <v>81420.39999999999</v>
+        <v>26188</v>
       </c>
       <c r="G98" t="n">
-        <v>55798.2</v>
+        <v>25113</v>
       </c>
       <c r="H98" t="n">
-        <v>150</v>
+        <v>4447</v>
       </c>
       <c r="I98" t="n">
-        <v>179378.6</v>
+        <v>72266</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -9007,21 +8985,21 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>4861</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>125500</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>65</v>
@@ -9030,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -9039,75 +9017,73 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>10890</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1154.14</v>
       </c>
       <c r="I100" t="n">
-        <v>7000</v>
+        <v>12044.14</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="n"/>
       <c r="B101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>148976.71</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2159.09</v>
+      </c>
+      <c r="G101" t="n">
+        <v>18961.66</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3036.92</v>
+      </c>
+      <c r="I101" t="n">
+        <v>183134.38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>800</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C102" t="n">
-        <v>1824924.86</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>5000149.59</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>136792.82</v>
+        <v>4579.66</v>
       </c>
       <c r="F102" t="n">
-        <v>175626.26</v>
+        <v>15090.89</v>
       </c>
       <c r="G102" t="n">
-        <v>1084468.07</v>
+        <v>3410</v>
       </c>
       <c r="H102" t="n">
-        <v>14473.13</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>8236434.729999999</v>
+        <v>23080.55</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -9116,19 +9092,19 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>142183.35</v>
+        <v>4564.64</v>
       </c>
       <c r="F103" t="n">
-        <v>260861.98</v>
+        <v>15890.94</v>
       </c>
       <c r="G103" t="n">
-        <v>790465.0299999999</v>
+        <v>4953.13</v>
       </c>
       <c r="H103" t="n">
-        <v>103731.03</v>
+        <v>71.72</v>
       </c>
       <c r="I103" t="n">
-        <v>1297241.39</v>
+        <v>25480.43</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9155,36 +9131,36 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>16233766.85</v>
+        <v>254713.88</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C105" t="n">
-        <v>727870</v>
+        <v>11177</v>
       </c>
       <c r="D105" t="n">
-        <v>168657</v>
+        <v>28692</v>
       </c>
       <c r="E105" t="n">
-        <v>1335</v>
+        <v>459</v>
       </c>
       <c r="F105" t="n">
-        <v>4404</v>
+        <v>754</v>
       </c>
       <c r="G105" t="n">
-        <v>42414</v>
+        <v>11113</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="I105" t="n">
-        <v>944680</v>
+        <v>52542</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9196,28 +9172,28 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>26550</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>77909</v>
+        <v>4113</v>
       </c>
       <c r="F106" t="n">
-        <v>290236</v>
+        <v>3350</v>
       </c>
       <c r="G106" t="n">
-        <v>226587</v>
+        <v>50300</v>
       </c>
       <c r="H106" t="n">
-        <v>18638</v>
+        <v>1700</v>
       </c>
       <c r="I106" t="n">
-        <v>639920</v>
+        <v>59463</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -9226,48 +9202,48 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>63565</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>10323</v>
       </c>
       <c r="I107" t="n">
-        <v>205170</v>
+        <v>76888</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="D108" t="n">
-        <v>168656</v>
+        <v>131203.96</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>422.78</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>3364.76</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>24394</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>7515.1</v>
       </c>
       <c r="I108" t="n">
-        <v>168656</v>
+        <v>206900.6</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -9282,110 +9258,108 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>9901.24</v>
+        <v>8379.719999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>23947.66</v>
+        <v>27327.25000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>11500</v>
+        <v>133271.04</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>14033.56</v>
       </c>
       <c r="I109" t="n">
-        <v>45348.9</v>
+        <v>183011.57</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C110" t="n">
-        <v>10000</v>
+        <v>127940.37</v>
       </c>
       <c r="D110" t="n">
-        <v>102391.88</v>
+        <v>307653.97</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>10243.05</v>
       </c>
       <c r="F110" t="n">
-        <v>206.75</v>
+        <v>19422</v>
       </c>
       <c r="G110" t="n">
-        <v>34016.2</v>
+        <v>14650.89</v>
       </c>
       <c r="H110" t="n">
-        <v>832.67</v>
+        <v>2115.74</v>
       </c>
       <c r="I110" t="n">
-        <v>147447.5</v>
+        <v>482026.02</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" t="n">
+        <v>544093.21</v>
+      </c>
+      <c r="D111" t="n">
+        <v>853396.25</v>
+      </c>
+      <c r="E111" t="n">
+        <v>17778.93</v>
+      </c>
+      <c r="F111" t="n">
+        <v>92010.60000000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>63100.59</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4677.74</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1575057.32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6457.109999999999</v>
-      </c>
-      <c r="F111" t="n">
-        <v>23966.64000000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>51965.15</v>
-      </c>
-      <c r="H111" t="n">
-        <v>6150.51</v>
-      </c>
-      <c r="I111" t="n">
-        <v>88539.41000000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C112" t="n">
-        <v>797257</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>3115267</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>5502</v>
+        <v>19861.92</v>
       </c>
       <c r="F112" t="n">
-        <v>22363</v>
+        <v>64496.83</v>
       </c>
       <c r="G112" t="n">
-        <v>183583</v>
+        <v>60368.55</v>
       </c>
       <c r="H112" t="n">
-        <v>3000</v>
+        <v>4339.950000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>4126972</v>
+        <v>149067.25</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -9394,19 +9368,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>67428</v>
+        <v>20454.95</v>
       </c>
       <c r="F113" t="n">
-        <v>193140</v>
+        <v>90796.46000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>305389</v>
+        <v>40511.54</v>
       </c>
       <c r="H113" t="n">
-        <v>14282</v>
+        <v>4093.81</v>
       </c>
       <c r="I113" t="n">
-        <v>580239</v>
+        <v>155856.76</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -9433,36 +9407,36 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1858318</v>
+        <v>557916.9</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C115" t="n">
-        <v>7835</v>
+        <v>496046.29</v>
       </c>
       <c r="D115" t="n">
-        <v>231449</v>
+        <v>1849405.739999999</v>
       </c>
       <c r="E115" t="n">
-        <v>5556.059999999999</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>11036.1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>58569.94</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>43486.36</v>
       </c>
       <c r="I115" t="n">
-        <v>255876.16</v>
+        <v>2447508.329999999</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -9477,137 +9451,135 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>19440.18</v>
+        <v>2728.86</v>
       </c>
       <c r="F116" t="n">
-        <v>47068.42999999999</v>
+        <v>5150.139999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>29350</v>
+        <v>129157.95</v>
       </c>
       <c r="H116" t="n">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>97213.60999999999</v>
+        <v>137036.95</v>
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C117" t="n">
-        <v>1826290</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>1523096</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>5821</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>5122</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>492447</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>393</v>
+        <v>484.79</v>
       </c>
       <c r="I117" t="n">
-        <v>3853169</v>
+        <v>484.79</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>176513.07</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>800</v>
+      </c>
+      <c r="D119" t="n">
+        <v>112977.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>113777.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>115201</v>
-      </c>
-      <c r="F118" t="n">
-        <v>130981</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1979075</v>
-      </c>
-      <c r="H118" t="n">
-        <v>101776</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2327033</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6998109</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C120" t="n">
-        <v>215022.25</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>218107.03</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>7834</v>
+        <v>9897.200000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>7439</v>
+        <v>15572.3</v>
       </c>
       <c r="G120" t="n">
-        <v>1000</v>
+        <v>35053.77</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>3627.99</v>
       </c>
       <c r="I120" t="n">
-        <v>449402.28</v>
+        <v>64151.25999999999</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -9616,19 +9588,19 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>56048.11</v>
+        <v>959.2</v>
       </c>
       <c r="F121" t="n">
-        <v>87602.73</v>
+        <v>4487.8</v>
       </c>
       <c r="G121" t="n">
-        <v>49603.61</v>
+        <v>25500</v>
       </c>
       <c r="H121" t="n">
-        <v>21142.48</v>
+        <v>358</v>
       </c>
       <c r="I121" t="n">
-        <v>214396.93</v>
+        <v>31305</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -9655,69 +9627,69 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>6659.31</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C123" t="n">
-        <v>293776.47</v>
+        <v>2220856</v>
       </c>
       <c r="D123" t="n">
-        <v>1234021.74</v>
+        <v>651884</v>
       </c>
       <c r="E123" t="n">
-        <v>422.78</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>7864.76</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>93991</v>
+        <v>29062</v>
       </c>
       <c r="H123" t="n">
-        <v>14491.63</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1644568.38</v>
+        <v>2901802</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>390995</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>161000</v>
       </c>
       <c r="E124" t="n">
-        <v>40054.83</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>146256.47</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>378638.52</v>
+        <v>988</v>
       </c>
       <c r="H124" t="n">
-        <v>52220.73</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>617170.5499999999</v>
+        <v>552983</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -9726,54 +9698,52 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>6794</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>11156</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>40553</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>4262</v>
       </c>
       <c r="I125" t="n">
-        <v>297960.34</v>
+        <v>62765</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C126" t="n">
-        <v>461571</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>830411</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>4874</v>
+        <v>8711</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>18154</v>
       </c>
       <c r="G126" t="n">
-        <v>527506</v>
+        <v>102214</v>
       </c>
       <c r="H126" t="n">
-        <v>3537</v>
+        <v>21169</v>
       </c>
       <c r="I126" t="n">
-        <v>1827899</v>
+        <v>150248</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -9782,31 +9752,33 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>28560</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>76241</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>157360</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>16753</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>278914</v>
+        <v>2239565</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="1" t="n"/>
+      <c r="A128" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B128" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -9821,21 +9793,19 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>185571</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="D129" t="n">
-        <v>55249</v>
+        <v>94557.35000000001</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -9850,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>55249</v>
+        <v>96157.35000000001</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -9865,108 +9835,108 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>17588</v>
+        <v>872.4</v>
       </c>
       <c r="F130" t="n">
-        <v>26799</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>14300</v>
+        <v>17600</v>
       </c>
       <c r="H130" t="n">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>60726</v>
+        <v>18472.4</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>564.15</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2781</v>
+      </c>
+      <c r="G131" t="n">
+        <v>24810</v>
+      </c>
+      <c r="H131" t="n">
+        <v>42</v>
+      </c>
+      <c r="I131" t="n">
+        <v>28197.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C132" t="n">
-        <v>1056679.22</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1012337.41</v>
-      </c>
-      <c r="E132" t="n">
-        <v>37738.36999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>122312.31</v>
-      </c>
-      <c r="G132" t="n">
-        <v>109103.89</v>
-      </c>
-      <c r="H132" t="n">
-        <v>10760.7</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2348931.899999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>340494</v>
       </c>
       <c r="E133" t="n">
-        <v>41275.78999999999</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>105225.7700000001</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>193870.38</v>
+        <v>27620</v>
       </c>
       <c r="H133" t="n">
-        <v>12375.88</v>
+        <v>546</v>
       </c>
       <c r="I133" t="n">
-        <v>352747.8199999998</v>
+        <v>368660</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -9975,143 +9945,143 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>2674</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>205238</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>6073</v>
       </c>
       <c r="I134" t="n">
-        <v>414092.07</v>
+        <v>216105</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C135" t="n">
-        <v>6704</v>
+        <v>164271</v>
       </c>
       <c r="D135" t="n">
-        <v>174799</v>
+        <v>598476</v>
       </c>
       <c r="E135" t="n">
-        <v>29122</v>
+        <v>1812</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="G135" t="n">
-        <v>3100</v>
+        <v>5411</v>
       </c>
       <c r="H135" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>213921</v>
+        <v>773840</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" t="n">
+        <v>8377</v>
+      </c>
+      <c r="D136" t="n">
+        <v>447235</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>455612</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>45814</v>
-      </c>
-      <c r="F136" t="n">
-        <v>108465</v>
-      </c>
-      <c r="G136" t="n">
-        <v>67550</v>
-      </c>
-      <c r="H136" t="n">
-        <v>9373</v>
-      </c>
-      <c r="I136" t="n">
-        <v>231202</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C137" t="n">
-        <v>827615.79</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>188952.59</v>
+        <v>11000</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>59563</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>140835</v>
       </c>
       <c r="G137" t="n">
-        <v>2739.85</v>
+        <v>75178</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1019308.23</v>
+        <v>286576</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>945.35</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>3131.46</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>10632.83</v>
+        <v>524</v>
       </c>
       <c r="G138" t="n">
-        <v>38968.23</v>
+        <v>2352</v>
       </c>
       <c r="H138" t="n">
-        <v>1111.95</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>54789.82000000001</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="1" t="n"/>
+      <c r="A139" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B139" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>393480</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -10126,36 +10096,34 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>680648.9300000001</v>
+        <v>393480</v>
       </c>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A140" s="1" t="n"/>
       <c r="B140" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C140" t="n">
-        <v>147500</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>971702.1000000001</v>
+        <v>245086</v>
       </c>
       <c r="E140" t="n">
-        <v>1824.44</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2220.63</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>19900</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1143147.17</v>
+        <v>245086</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -10170,25 +10138,25 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>38427.15</v>
+        <v>4852</v>
       </c>
       <c r="F141" t="n">
-        <v>103854.71</v>
+        <v>8525</v>
       </c>
       <c r="G141" t="n">
-        <v>225877.43</v>
+        <v>130903</v>
       </c>
       <c r="H141" t="n">
-        <v>3788.79</v>
+        <v>943</v>
       </c>
       <c r="I141" t="n">
-        <v>371948.0800000001</v>
+        <v>145223</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="n"/>
       <c r="B142" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -10197,48 +10165,48 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>4852</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>8524</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>16322</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="I142" t="n">
-        <v>205079.99</v>
+        <v>31074</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C143" t="n">
-        <v>1500</v>
+        <v>4858408.1</v>
       </c>
       <c r="D143" t="n">
-        <v>243336</v>
+        <v>874911.5599999998</v>
       </c>
       <c r="E143" t="n">
-        <v>1828</v>
+        <v>5688.17</v>
       </c>
       <c r="F143" t="n">
-        <v>3034</v>
+        <v>20552.02</v>
       </c>
       <c r="G143" t="n">
-        <v>15200</v>
+        <v>23600</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="I143" t="n">
-        <v>264898</v>
+        <v>5783392.850000001</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -10253,76 +10221,2301 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>12953.5</v>
       </c>
       <c r="F144" t="n">
+        <v>43002.89000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>42299</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1865.47</v>
+      </c>
+      <c r="I144" t="n">
+        <v>100120.86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>33072.71</v>
+      </c>
+      <c r="F145" t="n">
+        <v>96738.59</v>
+      </c>
+      <c r="G145" t="n">
+        <v>122576.78</v>
+      </c>
+      <c r="H145" t="n">
+        <v>10311.35</v>
+      </c>
+      <c r="I145" t="n">
+        <v>262699.43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2303382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="n">
+        <v>568255.0999999999</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1403578.58</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11935.19</v>
+      </c>
+      <c r="F147" t="n">
+        <v>52162.09</v>
+      </c>
+      <c r="G147" t="n">
+        <v>110395.57</v>
+      </c>
+      <c r="H147" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2146432.83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C148" t="n">
+        <v>194148.15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>590643.9300000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>10302.55</v>
+      </c>
+      <c r="F148" t="n">
+        <v>39737.28</v>
+      </c>
+      <c r="G148" t="n">
+        <v>197042.52</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1031874.43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>26100</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4807.02</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12973.15</v>
+      </c>
+      <c r="G149" t="n">
+        <v>161599.38</v>
+      </c>
+      <c r="H149" t="n">
+        <v>34943.57</v>
+      </c>
+      <c r="I149" t="n">
+        <v>240423.12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>37213.87</v>
+      </c>
+      <c r="E150" t="n">
+        <v>10424.22</v>
+      </c>
+      <c r="F150" t="n">
+        <v>48466.58</v>
+      </c>
+      <c r="G150" t="n">
+        <v>301203.73</v>
+      </c>
+      <c r="H150" t="n">
+        <v>27160.82</v>
+      </c>
+      <c r="I150" t="n">
+        <v>424469.22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1031039.46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" t="n">
+        <v>745242.5499999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>745242.5499999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>42010</v>
+      </c>
+      <c r="F153" t="n">
+        <v>81420.39999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>55798.2</v>
+      </c>
+      <c r="H153" t="n">
+        <v>150</v>
+      </c>
+      <c r="I153" t="n">
+        <v>179378.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>125500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>800</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1750833.67</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4473841</v>
+      </c>
+      <c r="E157" t="n">
+        <v>127653.22</v>
+      </c>
+      <c r="F157" t="n">
+        <v>139942.47</v>
+      </c>
+      <c r="G157" t="n">
+        <v>928094.0699999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6815.030000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>7427179.459999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158" t="n">
+        <v>74091.19</v>
+      </c>
+      <c r="D158" t="n">
+        <v>526308.59</v>
+      </c>
+      <c r="E158" t="n">
+        <v>9139.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>35683.79</v>
+      </c>
+      <c r="G158" t="n">
+        <v>156374</v>
+      </c>
+      <c r="H158" t="n">
+        <v>7658.1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>809255.27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>98590.05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>196321.97</v>
+      </c>
+      <c r="G159" t="n">
+        <v>581089.1699999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>79128.39</v>
+      </c>
+      <c r="I159" t="n">
+        <v>955129.5800000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>43593.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>64540.01</v>
+      </c>
+      <c r="G160" t="n">
+        <v>209375.86</v>
+      </c>
+      <c r="H160" t="n">
+        <v>24602.64</v>
+      </c>
+      <c r="I160" t="n">
+        <v>342111.81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>16233766.85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" t="n">
+        <v>427870</v>
+      </c>
+      <c r="D162" t="n">
+        <v>163157</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1335</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4404</v>
+      </c>
+      <c r="G162" t="n">
+        <v>29014</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>625780</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>13400</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>318900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>66721</v>
+      </c>
+      <c r="F164" t="n">
+        <v>246174</v>
+      </c>
+      <c r="G164" t="n">
+        <v>164681</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1920</v>
+      </c>
+      <c r="I164" t="n">
+        <v>479496</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>26550</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11188</v>
+      </c>
+      <c r="F165" t="n">
+        <v>44062</v>
+      </c>
+      <c r="G165" t="n">
+        <v>61906</v>
+      </c>
+      <c r="H165" t="n">
+        <v>16718</v>
+      </c>
+      <c r="I165" t="n">
+        <v>160424</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>205170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>168656</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>168656</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9901.24</v>
+      </c>
+      <c r="F168" t="n">
+        <v>23947.66</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11500</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>45348.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>102391.88</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>206.75</v>
+      </c>
+      <c r="G169" t="n">
+        <v>34016.2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>832.67</v>
+      </c>
+      <c r="I169" t="n">
+        <v>147447.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5185.649999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>21474.19000000001</v>
+      </c>
+      <c r="G170" t="n">
+        <v>40540.15</v>
+      </c>
+      <c r="H170" t="n">
+        <v>6040.01</v>
+      </c>
+      <c r="I170" t="n">
+        <v>73240.00000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1271.46</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2492.45</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11425</v>
+      </c>
+      <c r="H171" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15299.41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" t="n">
+        <v>208411</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1071816</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3265</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8515</v>
+      </c>
+      <c r="G172" t="n">
+        <v>80390</v>
+      </c>
+      <c r="H172" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1375397</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C173" t="n">
+        <v>588846</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2043451</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2237</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13848</v>
+      </c>
+      <c r="G173" t="n">
+        <v>103193</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2751575</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>61949</v>
+      </c>
+      <c r="F174" t="n">
+        <v>164535</v>
+      </c>
+      <c r="G174" t="n">
+        <v>162780</v>
+      </c>
+      <c r="H174" t="n">
+        <v>720</v>
+      </c>
+      <c r="I174" t="n">
+        <v>389984</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5479</v>
+      </c>
+      <c r="F175" t="n">
+        <v>28605</v>
+      </c>
+      <c r="G175" t="n">
+        <v>142609</v>
+      </c>
+      <c r="H175" t="n">
+        <v>13562</v>
+      </c>
+      <c r="I175" t="n">
+        <v>190255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1858318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7835</v>
+      </c>
+      <c r="D177" t="n">
+        <v>216949</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3064.06</v>
+      </c>
+      <c r="F177" t="n">
+        <v>5591.1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>233439.16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>14500</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2492</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5445</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>22437</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11778.87</v>
+      </c>
+      <c r="F179" t="n">
+        <v>26806.3</v>
+      </c>
+      <c r="G179" t="n">
+        <v>26600</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1355</v>
+      </c>
+      <c r="I179" t="n">
+        <v>66540.16999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7661.31</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20262.13</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2750</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>30673.44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1826290</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1509779</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3187</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5122</v>
+      </c>
+      <c r="G181" t="n">
+        <v>488647</v>
+      </c>
+      <c r="H181" t="n">
+        <v>268</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3833293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>13317</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2634</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3800</v>
+      </c>
+      <c r="H182" t="n">
+        <v>125</v>
+      </c>
+      <c r="I182" t="n">
+        <v>19876</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>71690</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100294</v>
+      </c>
+      <c r="G183" t="n">
+        <v>244026</v>
+      </c>
+      <c r="H183" t="n">
+        <v>41093</v>
+      </c>
+      <c r="I183" t="n">
+        <v>457103</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>43511</v>
+      </c>
+      <c r="F184" t="n">
+        <v>30687</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1735049</v>
+      </c>
+      <c r="H184" t="n">
+        <v>60683</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1869930</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>6998109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" t="n">
+        <v>7750</v>
+      </c>
+      <c r="D186" t="n">
+        <v>87910.75</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3016</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5603</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>104279.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" t="n">
+        <v>207272.25</v>
+      </c>
+      <c r="D187" t="n">
+        <v>130196.28</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4818</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1836</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>345122.53</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>33493.51</v>
+      </c>
+      <c r="F188" t="n">
+        <v>57389.93</v>
+      </c>
+      <c r="G188" t="n">
+        <v>22453.45</v>
+      </c>
+      <c r="H188" t="n">
+        <v>15859.48</v>
+      </c>
+      <c r="I188" t="n">
+        <v>129196.37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1" t="n"/>
+      <c r="B189" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>22554.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>30212.8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>27150.16</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5283</v>
+      </c>
+      <c r="I189" t="n">
+        <v>85200.56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6659.31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>132203.96</v>
+      </c>
+      <c r="E191" t="n">
+        <v>422.78</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3364.76</v>
+      </c>
+      <c r="G191" t="n">
+        <v>24394</v>
+      </c>
+      <c r="H191" t="n">
+        <v>7515.1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>223900.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" t="n">
+        <v>237776.47</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1101817.78</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G192" t="n">
+        <v>69597</v>
+      </c>
+      <c r="H192" t="n">
+        <v>6976.53</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1420667.78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9029.82</v>
+      </c>
+      <c r="F193" t="n">
+        <v>27849.25000000001</v>
+      </c>
+      <c r="G193" t="n">
+        <v>139771.04</v>
+      </c>
+      <c r="H193" t="n">
+        <v>14520.18</v>
+      </c>
+      <c r="I193" t="n">
+        <v>191170.2899999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>31025.01</v>
+      </c>
+      <c r="F194" t="n">
+        <v>118407.22</v>
+      </c>
+      <c r="G194" t="n">
+        <v>238867.48</v>
+      </c>
+      <c r="H194" t="n">
+        <v>37700.55</v>
+      </c>
+      <c r="I194" t="n">
+        <v>426000.26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>297960.34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" t="n">
+        <v>456571</v>
+      </c>
+      <c r="D196" t="n">
+        <v>295743</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3757</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>11850</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>767921</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>534668</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1117</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>515656</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3537</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1059978</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>19342</v>
+      </c>
+      <c r="F198" t="n">
+        <v>55763</v>
+      </c>
+      <c r="G198" t="n">
+        <v>74340</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3797</v>
+      </c>
+      <c r="I198" t="n">
+        <v>153242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>9218</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20478</v>
+      </c>
+      <c r="G199" t="n">
+        <v>83020</v>
+      </c>
+      <c r="H199" t="n">
+        <v>12956</v>
+      </c>
+      <c r="I199" t="n">
+        <v>125672</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>185571</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>55249</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>55249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>17588</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26799</v>
+      </c>
+      <c r="G202" t="n">
+        <v>14300</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2039</v>
+      </c>
+      <c r="I202" t="n">
+        <v>60726</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1000248.88</v>
+      </c>
+      <c r="D204" t="n">
+        <v>698611.14</v>
+      </c>
+      <c r="E204" t="n">
+        <v>35096.94999999999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>102716.32</v>
+      </c>
+      <c r="G204" t="n">
+        <v>103847.89</v>
+      </c>
+      <c r="H204" t="n">
+        <v>10760.7</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1951281.879999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" t="n">
+        <v>56430.34</v>
+      </c>
+      <c r="D205" t="n">
+        <v>313726.27</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2641.42</v>
+      </c>
+      <c r="F205" t="n">
+        <v>19595.99</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5256</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>397650.02</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>40632.58999999999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>103979.4400000001</v>
+      </c>
+      <c r="G206" t="n">
+        <v>172693.69</v>
+      </c>
+      <c r="H206" t="n">
+        <v>11981.62</v>
+      </c>
+      <c r="I206" t="n">
+        <v>329287.3399999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>643.2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1246.33</v>
+      </c>
+      <c r="G207" t="n">
+        <v>21176.69</v>
+      </c>
+      <c r="H207" t="n">
+        <v>394.26</v>
+      </c>
+      <c r="I207" t="n">
+        <v>23460.48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>414092.07</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4852</v>
+      </c>
+      <c r="D209" t="n">
+        <v>174799</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H209" t="n">
+        <v>62</v>
+      </c>
+      <c r="I209" t="n">
+        <v>180713</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1852</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>29122</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2100</v>
+      </c>
+      <c r="H210" t="n">
+        <v>134</v>
+      </c>
+      <c r="I210" t="n">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>480</v>
+      </c>
+      <c r="F211" t="n">
+        <v>705</v>
+      </c>
+      <c r="G211" t="n">
+        <v>52600</v>
+      </c>
+      <c r="H211" t="n">
+        <v>8079</v>
+      </c>
+      <c r="I211" t="n">
+        <v>61864</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>45334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>107760</v>
+      </c>
+      <c r="G212" t="n">
+        <v>14950</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1294</v>
+      </c>
+      <c r="I212" t="n">
+        <v>169338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" t="n">
+        <v>827615.79</v>
+      </c>
+      <c r="D213" t="n">
+        <v>188952.59</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2739.85</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1019308.23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>945.35</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1658.86</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7243.969999999999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>11909.65</v>
+      </c>
+      <c r="H214" t="n">
+        <v>615.25</v>
+      </c>
+      <c r="I214" t="n">
+        <v>22373.08</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1472.6</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3388.86</v>
+      </c>
+      <c r="G215" t="n">
+        <v>27058.58</v>
+      </c>
+      <c r="H215" t="n">
+        <v>496.7</v>
+      </c>
+      <c r="I215" t="n">
+        <v>32416.74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>680648.9300000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>579261.5000000001</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1256.6</v>
+      </c>
+      <c r="F217" t="n">
+        <v>632.1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>17400</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>598550.2000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C218" t="n">
+        <v>147500</v>
+      </c>
+      <c r="D218" t="n">
+        <v>392440.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>567.84</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1588.53</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>544596.97</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>18857.32</v>
+      </c>
+      <c r="F219" t="n">
+        <v>49002.07999999999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>95980.60000000001</v>
+      </c>
+      <c r="H219" t="n">
+        <v>322.79</v>
+      </c>
+      <c r="I219" t="n">
+        <v>164162.7900000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>19569.83</v>
+      </c>
+      <c r="F220" t="n">
+        <v>54852.63</v>
+      </c>
+      <c r="G220" t="n">
+        <v>129896.83</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3466</v>
+      </c>
+      <c r="I220" t="n">
+        <v>207785.29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>205079.99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D222" t="n">
+        <v>228111</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1369</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2426</v>
+      </c>
+      <c r="G222" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>248606</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="1" t="n"/>
+      <c r="B223" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>15225</v>
+      </c>
+      <c r="E223" t="n">
+        <v>459</v>
+      </c>
+      <c r="F223" t="n">
+        <v>608</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>16292</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
         <v>11510</v>
       </c>
-      <c r="G144" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>17510</v>
+      <c r="G224" t="n">
+        <v>4800</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>16310</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A104"/>
     <mergeCell ref="A105:A107"/>
     <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A191:A195"/>
+    <mergeCell ref="A196:A200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="A222:A225"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10347,16 +12540,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -10933,7 +13126,7 @@
         <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>421110.5</v>
+        <v>421110.4999999999</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
